--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -575,7 +575,7 @@
         <v>45826</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45481.50050925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45481.44920138889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44354.5665162037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517.61098379629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>45201</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45811.34444444445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44498.63015046297</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45617</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45810</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45939.36972222223</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>46038.31931712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44861</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45810</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45826</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45915</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44960</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45805.41388888889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45613</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>46038.34517361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45106</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45016.07569444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44986</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44987</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45898.365</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45952.34454861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45960.574375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45443</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44823</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45811</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45898</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45903.69844907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45925.34439814815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45093.60384259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45936.46305555556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>45937.63756944444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>45208</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45880.3647337963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>46036.57505787037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45562</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45910</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45280</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45761</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>45568</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45236.40642361111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45505</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44490.65641203704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44727.65446759259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44858.49686342593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>44426.69363425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44519.49189814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44615.35633101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44420.34442129629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44808.95638888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44756.49922453704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44803.43947916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44851.95386574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44847.94993055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44687.29710648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44797.94505787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44767.94136574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44795.94395833334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44526.36642361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44817.94888888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44381</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44477.49746527777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44381.91863425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44817.94775462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44459</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44341</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44490.60037037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44694</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44694.53769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44678</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44755</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44795</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44519.41366898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44858</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44747</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44861.95710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44607.94155092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44872.95690972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44531</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44686.94269675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44433.64141203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44385.93583333334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44350</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44455.60459490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44386.56488425926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44496.39971064815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44781</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44498.61892361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44496</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44472</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44498.62789351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44711</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44704.59678240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44704.6177662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44915.94381944444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44915.94388888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45488.4725925926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45775</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45643.65672453704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44377.76381944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45316</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45443</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45677</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45106.94461805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44398.93342592593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45218.34753472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45114</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45698.85268518519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44985.94431712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44985</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45561</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45754</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45590.40659722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44761</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45036</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45035</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45597.49931712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45517</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45099.62826388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45309</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>45761</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45320</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45526.36461805556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45147</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>45559.61655092592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44516.34648148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45611</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45107.44431712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44698</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45092</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44935.97217592593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44376.93355324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45071.92619212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45120.43883101852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>44592.37475694445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45761</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>45635</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45104</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45799.38585648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45266.95105324074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45426</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44671.94822916666</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45799</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45800.64912037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45800.66145833334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>45800.63631944444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45800.67762731481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45884.5409375</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45884.54922453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44687.30193287037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45805.44869212963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>45805.37388888889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>45805</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44922.94351851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45625.42743055556</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44595.92319444445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>45805.3371412037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>45805.36008101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>45805.36946759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45805.32921296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45479</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>45889.67877314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>45807</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>45148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45888.69388888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>45889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45476.31515046296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>45476.31981481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45720</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>45889.3547800926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>45485.39127314815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>45463.58333333334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45463.58702546296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45888.54513888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45810.57378472222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>45177.50853009259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45888.53960648148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>45889.36145833333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45827</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45810</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45890</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45813</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45890.34418981482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>45890</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45443</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45558</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45329</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45329</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44984</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45813.67741898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45890</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45266</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45812.34475694445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45895.72991898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>45679</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>45770.61505787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45894.38201388889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45892.69835648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45814</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45895.48251157408</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45895.63664351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45894.37039351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45893.69837962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44971</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45894.53172453704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>45817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>45894.69829861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45894.53178240741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45814</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45895.48373842592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45637</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>45814</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>45814.39700231481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45897.63563657407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>45818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45898.53180555555</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45901.55246527777</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45713</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>45898.55245370371</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>45901.55268518518</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45575.36512731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44943.50074074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44739</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45903</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>45903.65673611111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>45677</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>45820.6775</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45236.4175</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45236.45083333334</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>45903</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45505.95209490741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45819</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44503</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45905.59663194444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>45369</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45904.61506944444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44344</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>45790</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45198.52241898148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>45758.3859375</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45825.34444444445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45103</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45174.93857638889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45909.32541666667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>45777.55259259259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45615</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>45908.6425</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45911.57329861111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45911.60609953704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45910.71481481481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45910</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45911.61565972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45826</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>45911.51107638889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>45826.49555555556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>45576</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45826</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45457.96425925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>45915.39046296296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>45915.45715277778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>45915.67774305555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45705.46724537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45481</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>45481</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45826.49273148148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45826</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>45826.57112268519</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>45912.34260416667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>45827.34677083333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45915.62952546297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45775.44128472222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45915.43275462963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44866</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45265.95873842593</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45265.95881944444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45915.63162037037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45826.32945601852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45916.54385416667</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45826.31524305556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45121.45128472222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45916.65673611111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45826</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45826.48354166667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>45916.54280092593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45917.47184027778</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45068</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45916.34494212963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45463.57846064815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45916.58086805556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45916.50414351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45917.56386574074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45205</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45831.62219907407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45831</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45831</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>45831.60331018519</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45831.61457175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45316</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44376.93453703704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45919.62422453704</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45918.65660879629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45922</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45266.6125</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45833.34509259259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45922.42104166667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45923.47471064814</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45923.4768287037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45923.47857638889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>45833.51791666666</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>45922.57350694444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45206</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>45832</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45832</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>45833.39784722222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>45832</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>45223</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45832</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>45832</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45832.34510416666</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44908</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45463</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45925.34475694445</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45505</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>45835.69831018519</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>45113.94976851852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>45929.58471064815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>45926.34449074074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45926.65686342592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44952</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>45835.52561342593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>45926.61768518519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45835.64210648148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45930.56827546296</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>45488.94793981482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45838.67253472222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45176</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45930.63641203703</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45838.70978009259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45931.61092592592</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45481.46547453704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45481.60922453704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45932.34476851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45839.68309027778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45198</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44935.97194444444</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45839.60825231481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45839.37024305556</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>45839.51207175926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45932.34454861111</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45540.34417824074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45839.79112268519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45553.76251157407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45215.87696759259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44952</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>45534.63957175926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>44845.95304398148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45562.5971412037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>45562.62887731481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>45937.53739583334</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>45937.37208333334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>45939.32709490741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45799</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>45649</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45939.35900462963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>45937.62199074074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>45938.37679398148</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45937.31471064815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45939.59351851852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45939.33030092593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>45937.45689814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>45939.37686342592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45754.62675925926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45938.43431712963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45938.43741898148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45105.86278935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28075,7 +28075,7 @@
         <v>45167</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>44936.86325231481</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45190.47796296296</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45842</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45940.34538194445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45149</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45077.45833333334</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45943.71912037037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45068</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45944.3794212963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45387.95421296296</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45944.41266203704</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>45841.83299768518</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45944.39729166667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28923,7 +28923,7 @@
         <v>45841.83383101852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28980,7 +28980,7 @@
         <v>45944.75725694445</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44356.93478009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45846.34438657408</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>45573</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>45944.45733796297</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>45944.55519675926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45510</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29414,7 +29414,7 @@
         <v>45944.57844907408</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29471,7 +29471,7 @@
         <v>45944.59637731482</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>45944.56780092593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>45484.58983796297</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
         <v>45943.79672453704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>45944.41163194444</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         <v>45944.55862268519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>45484.6541087963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>45113.94958333333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45793.55854166667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>45944.3453125</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45944.45122685185</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45944.45759259259</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45595</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45946.59537037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>45947.63258101852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45561</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45947.48685185185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>45636</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>45849.42777777778</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45848.38278935185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45849.34042824074</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         <v>45849.46943287037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>45848.36859953704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45848.3715625</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45463.58045138889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45846.34537037037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45849.40900462963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>45849.5046875</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45849.51297453704</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45947.44662037037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31301,7 +31301,7 @@
         <v>45947.4753125</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31363,7 +31363,7 @@
         <v>45950.65675925926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45950.38591435185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45855</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45950.36554398148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>45854.33944444444</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>45856.49295138889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>44697</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45208.62702546296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31854,7 +31854,7 @@
         <v>45856.52092592593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>45856</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45950.49023148148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45757</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45951.4962037037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45666</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45769.65708333333</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45953.67081018518</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>45863.44965277778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45863.44001157407</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45953.32070601852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45953.38861111111</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45953.3316550926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45953.36392361111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45867</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45867.63604166666</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45867</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45867.39787037037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45562</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45867.68413194444</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>45646</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33111,7 +33111,7 @@
         <v>45867.43743055555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>45867.505</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45867.34443287037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45443</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>45867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>45867.70578703703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45868.56623842593</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>45952.63707175926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>45868</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>45488.46452546296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33716,7 +33716,7 @@
         <v>45868.61376157407</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45868.69234953704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45955.49012731481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45868</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45869.47054398148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45870.36071759259</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45955.61505787037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45954.71922453704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45955.48998842593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45510.97013888889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45665.4312037037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45214.87300925926</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45214.93665509259</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>45870.41331018518</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>45870.57207175926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34641,7 +34641,7 @@
         <v>45619</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45037.94150462963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>45958.56741898148</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>45870.69335648148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>45958.63582175926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34951,7 +34951,7 @@
         <v>44722</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35013,7 +35013,7 @@
         <v>45874.36677083333</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35070,7 +35070,7 @@
         <v>44971.93078703704</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35127,7 +35127,7 @@
         <v>45874.6078587963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35184,7 +35184,7 @@
         <v>45874.61203703703</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35241,7 +35241,7 @@
         <v>45103</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>44426.68600694444</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>45182</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>45562.52640046296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45533.5966087963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35551,7 +35551,7 @@
         <v>45774.81648148148</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>45538</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45877.31953703704</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>45960.69875</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35856,7 +35856,7 @@
         <v>45965.32998842592</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45356</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>45880.74818287037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>45880.75725694445</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36094,7 +36094,7 @@
         <v>45880.7615162037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36151,7 +36151,7 @@
         <v>45061</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>45523.53366898148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>45698.63582175926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36337,7 +36337,7 @@
         <v>45041</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>45881.4718287037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36456,7 +36456,7 @@
         <v>45604</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45967.51125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36580,7 +36580,7 @@
         <v>45883.67765046296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>45590</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36704,7 +36704,7 @@
         <v>45601</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36766,7 +36766,7 @@
         <v>45966.70601851852</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>45966.71070601852</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45601</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36952,7 +36952,7 @@
         <v>45966.72503472222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37014,7 +37014,7 @@
         <v>45329</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45881.46734953704</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45883.67813657408</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37200,7 +37200,7 @@
         <v>45882.65576388889</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
         <v>45966.67761574074</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37319,7 +37319,7 @@
         <v>45883.71945601852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45881.47364583334</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>45882.64888888889</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>45883.34482638889</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45966.64833333333</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>45967.67780092593</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37686,7 +37686,7 @@
         <v>45883.67800925926</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37748,7 +37748,7 @@
         <v>45204</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>45971.65574074074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37872,7 +37872,7 @@
         <v>45971.34835648148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45968.49219907408</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>45881.44828703703</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>45882.65986111111</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38115,7 +38115,7 @@
         <v>45968.47324074074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>45883.34452546296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>45882.64618055556</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>45484</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>45484</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>45565.33832175926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38472,7 +38472,7 @@
         <v>45883.61994212963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>45881.40665509259</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45973.59322916667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38658,7 +38658,7 @@
         <v>45972.69997685185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38720,7 +38720,7 @@
         <v>45478</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38782,7 +38782,7 @@
         <v>45975.49438657407</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38839,7 +38839,7 @@
         <v>45975.47174768519</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>45450</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45975.48168981481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45974.5987037037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>45975.5490625</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>45112.41425925926</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>45618.43826388889</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39258,7 +39258,7 @@
         <v>45481.47248842593</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45567</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>45154.58393518518</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39439,7 +39439,7 @@
         <v>45978.36053240741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45979.4640625</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45198</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45978.68910879629</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39672,7 +39672,7 @@
         <v>45981.70042824074</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45980.345625</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
         <v>45980.40270833333</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45329</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44970</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45981.45693287037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45756.57346064815</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>45985.61600694444</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40153,7 +40153,7 @@
         <v>45985.59456018519</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40215,7 +40215,7 @@
         <v>45985.63663194444</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45737</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45665.77418981482</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45985.63626157407</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>45629</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>45985.61247685185</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>46028.75300925926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40634,7 +40634,7 @@
         <v>45622.59480324074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40696,7 +40696,7 @@
         <v>45645</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>45534.3956712963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45471</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45600.61493055556</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45986.598125</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45719</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>45986.46958333333</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45561</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45988.84578703704</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45559.64984953704</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>45772.55646990741</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>44524</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>45993</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41467,7 +41467,7 @@
         <v>45546.34490740741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41529,7 +41529,7 @@
         <v>46035.44826388889</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         <v>45566</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45762.45550925926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>45566.40032407407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41767,7 +41767,7 @@
         <v>45756.30644675926</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41824,7 +41824,7 @@
         <v>45121</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>45993.36509259259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>45743</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>45992.81230324074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42062,7 +42062,7 @@
         <v>45029.94212962963</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>46036.58723379629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>46036.37449074074</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>46036.37225694444</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42310,7 +42310,7 @@
         <v>45589</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>45604</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>44980.93821759259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>45140</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>46036.603125</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45590</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45705</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42739,7 +42739,7 @@
         <v>46036.65756944445</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42801,7 +42801,7 @@
         <v>45995.56527777778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45077.54615740741</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42920,7 +42920,7 @@
         <v>44505</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42982,7 +42982,7 @@
         <v>44859</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43039,7 +43039,7 @@
         <v>46038.34892361111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         <v>45720.57324074074</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>44322.93407407407</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>45996.65587962963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>45113</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>44551</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>46001.57803240741</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>46001.68094907407</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43530,7 +43530,7 @@
         <v>45479.9489699074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>44938.93849537037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>46001.68630787037</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>46001.59894675926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>44449.42745370371</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>45775.45503472222</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43897,7 +43897,7 @@
         <v>46042.67096064815</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>45622.63604166666</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45078.94167824074</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>46001.59224537037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44145,7 +44145,7 @@
         <v>45246.96921296296</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44207,7 +44207,7 @@
         <v>46045.44380787037</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44264,7 +44264,7 @@
         <v>45189</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45574.59653935185</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45379.93677083333</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>45910</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44507,7 +44507,7 @@
         <v>45551.34447916667</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>45282.61475694444</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44328</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>46006.52695601852</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44750,7 +44750,7 @@
         <v>45576.82554398148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44812,7 +44812,7 @@
         <v>45330.93173611111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44869,7 +44869,7 @@
         <v>46006.67302083333</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44931,7 +44931,7 @@
         <v>45448.94409722222</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44993,7 +44993,7 @@
         <v>46007.32546296297</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45055,7 +45055,7 @@
         <v>45774</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45112,7 +45112,7 @@
         <v>46049.42824074074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45174,7 +45174,7 @@
         <v>45560.33498842592</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45236,7 +45236,7 @@
         <v>46048</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45293,7 +45293,7 @@
         <v>46049.42774305555</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>45149</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>45677</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>45551.61681712963</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45330.93196759259</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45072.42990740741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45706</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45712,7 +45712,7 @@
         <v>46051.3494212963</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45774,7 +45774,7 @@
         <v>46051.36532407408</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45831,7 +45831,7 @@
         <v>46051.36545138889</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45888,7 +45888,7 @@
         <v>45148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45945,7 +45945,7 @@
         <v>45016</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46007,7 +46007,7 @@
         <v>46055.59488425926</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46069,7 +46069,7 @@
         <v>46055.36503472222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46131,7 +46131,7 @@
         <v>44377</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46188,7 +46188,7 @@
         <v>44952</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46245,7 +46245,7 @@
         <v>45135.45417824074</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46307,7 +46307,7 @@
         <v>45589.49001157407</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46369,7 +46369,7 @@
         <v>45677</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46426,7 +46426,7 @@
         <v>46057.51086805556</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46488,7 +46488,7 @@
         <v>45240.94754629629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46550,7 +46550,7 @@
         <v>46057.46924768519</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46612,7 +46612,7 @@
         <v>46057.490625</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46674,7 +46674,7 @@
         <v>45463</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46736,7 +46736,7 @@
         <v>45463.58829861111</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46798,7 +46798,7 @@
         <v>45645</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46855,7 +46855,7 @@
         <v>45476.32990740741</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>44377</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>46056.42962962963</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>46057.49060185185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47098,7 +47098,7 @@
         <v>45160</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>46056.4393287037</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>46057.51104166666</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47274,7 +47274,7 @@
         <v>46057.67790509259</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47336,7 +47336,7 @@
         <v>45443</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47398,7 +47398,7 @@
         <v>46057.49017361111</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47460,7 +47460,7 @@
         <v>45506</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47517,7 +47517,7 @@
         <v>45589</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47579,7 +47579,7 @@
         <v>44826</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47641,7 +47641,7 @@
         <v>44781</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47698,7 +47698,7 @@
         <v>45316</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         <v>45574.51344907407</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>45103</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47879,7 +47879,7 @@
         <v>44894</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47941,7 +47941,7 @@
         <v>45336.44858796296</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48003,7 +48003,7 @@
         <v>45194.66240740741</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48060,7 +48060,7 @@
         <v>45684.65501157408</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48117,7 +48117,7 @@
         <v>45113.94913194444</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48179,7 +48179,7 @@
         <v>45174.93927083333</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48241,7 +48241,7 @@
         <v>45771</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>45562</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48365,7 +48365,7 @@
         <v>45440.92835648148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48422,7 +48422,7 @@
         <v>45463</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48484,7 +48484,7 @@
         <v>45593.34453703704</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>45593</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48608,7 +48608,7 @@
         <v>45620.91673611111</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45113</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>44993.01305555556</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>45770.55261574074</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>45246</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48908,7 +48908,7 @@
         <v>45282</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48965,7 +48965,7 @@
         <v>45524.36006944445</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49027,7 +49027,7 @@
         <v>45524</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49089,7 +49089,7 @@
         <v>45518</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>44992</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49203,7 +49203,7 @@
         <v>45565</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>45068</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>45154.54208333333</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>45448.94569444445</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49446,7 +49446,7 @@
         <v>44592</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49503,7 +49503,7 @@
         <v>44592</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>45485.38484953704</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>45196.6055324074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>45093.31925925926</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49741,7 +49741,7 @@
         <v>45545</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44993.01296296297</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49865,7 +49865,7 @@
         <v>45712.51097222222</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49927,7 +49927,7 @@
         <v>45590</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49989,7 +49989,7 @@
         <v>45334.9250925926</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50046,7 +50046,7 @@
         <v>44879</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50103,7 +50103,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50160,7 +50160,7 @@
         <v>45127</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50222,7 +50222,7 @@
         <v>45559.47989583333</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50284,7 +50284,7 @@
         <v>45619.7193287037</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50346,7 +50346,7 @@
         <v>45387.95409722222</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50408,7 +50408,7 @@
         <v>45671</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50470,7 +50470,7 @@
         <v>45428</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
         <v>45576.43226851852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50594,7 +50594,7 @@
         <v>45756.57349537037</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45645</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45748</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45492</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45705.71922453704</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>45378.93795138889</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>45357</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>45566.94626157408</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51075,7 +51075,7 @@
         <v>45714</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51132,7 +51132,7 @@
         <v>45545</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>45576.83114583333</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51256,7 +51256,7 @@
         <v>45329</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51318,7 +51318,7 @@
         <v>45526.63690972222</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51380,7 +51380,7 @@
         <v>45476</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51442,7 +51442,7 @@
         <v>45560.55664351852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51504,7 +51504,7 @@
         <v>45392</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51566,7 +51566,7 @@
         <v>45329</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51628,7 +51628,7 @@
         <v>44988.92247685185</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51685,7 +51685,7 @@
         <v>44988.92252314815</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51742,7 +51742,7 @@
         <v>45239.96893518518</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51804,7 +51804,7 @@
         <v>45099</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51866,7 +51866,7 @@
         <v>45196</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51928,7 +51928,7 @@
         <v>45104.92340277778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51985,7 +51985,7 @@
         <v>45104.9234375</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52042,7 +52042,7 @@
         <v>45774.32366898148</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52099,7 +52099,7 @@
         <v>45590</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52161,7 +52161,7 @@
         <v>45113</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52218,7 +52218,7 @@
         <v>45329</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52280,7 +52280,7 @@
         <v>45772.36670138889</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52342,7 +52342,7 @@
         <v>45174.93942129629</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
         <v>44977.93446759259</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         <v>45092.35770833334</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>45224.57511574074</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52585,7 +52585,7 @@
         <v>45560.35121527778</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52647,7 +52647,7 @@
         <v>45481.37263888889</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52709,7 +52709,7 @@
         <v>44936</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52766,7 +52766,7 @@
         <v>44888</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52823,7 +52823,7 @@
         <v>45713</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52885,7 +52885,7 @@
         <v>45364</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52942,7 +52942,7 @@
         <v>45014</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52999,7 +52999,7 @@
         <v>45590</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53056,7 +53056,7 @@
         <v>45639.40667824074</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53118,7 +53118,7 @@
         <v>44925.93875</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53180,7 +53180,7 @@
         <v>45670</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53237,7 +53237,7 @@
         <v>45189</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53294,7 +53294,7 @@
         <v>45282.94709490741</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53356,7 +53356,7 @@
         <v>44953.97421296296</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53418,7 +53418,7 @@
         <v>45762.43146990741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53475,7 +53475,7 @@
         <v>45635</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53537,7 +53537,7 @@
         <v>44908</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53594,7 +53594,7 @@
         <v>45566.85192129629</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53656,7 +53656,7 @@
         <v>45761</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53713,7 +53713,7 @@
         <v>45187.50721064815</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53770,7 +53770,7 @@
         <v>45481.40775462963</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53832,7 +53832,7 @@
         <v>45505.95200231481</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53894,7 +53894,7 @@
         <v>45114.4889699074</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53956,7 +53956,7 @@
         <v>45098</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54018,7 +54018,7 @@
         <v>44533.94483796296</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54080,7 +54080,7 @@
         <v>45491.4734375</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54142,7 +54142,7 @@
         <v>45712.51121527778</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54204,7 +54204,7 @@
         <v>45600.45456018519</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54266,7 +54266,7 @@
         <v>45167</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54323,7 +54323,7 @@
         <v>45502</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54385,7 +54385,7 @@
         <v>45576.40248842593</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54447,7 +54447,7 @@
         <v>45147.32908564815</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54509,7 +54509,7 @@
         <v>45534.30681712963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54571,7 +54571,7 @@
         <v>45484.59297453704</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54633,7 +54633,7 @@
         <v>45758.5525462963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54695,7 +54695,7 @@
         <v>44952</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54752,7 +54752,7 @@
         <v>45272</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54814,7 +54814,7 @@
         <v>45037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54871,7 +54871,7 @@
         <v>44356.93482638889</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54933,7 +54933,7 @@
         <v>45313.76722222222</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54995,7 +54995,7 @@
         <v>45341.92533564815</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55052,7 +55052,7 @@
         <v>45510</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55114,7 +55114,7 @@
         <v>45622.58969907407</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         <v>45316</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55228,7 +55228,7 @@
         <v>45481.41788194444</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55290,7 +55290,7 @@
         <v>45610</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55352,7 +55352,7 @@
         <v>44379.50560185185</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55414,7 +55414,7 @@
         <v>44888</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55471,7 +55471,7 @@
         <v>45148.3397337963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55533,7 +55533,7 @@
         <v>45560.34202546296</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55595,7 +55595,7 @@
         <v>45313</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55657,7 +55657,7 @@
         <v>45774.7928587963</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55714,7 +55714,7 @@
         <v>45774.80667824074</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55771,7 +55771,7 @@
         <v>45645</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55833,7 +55833,7 @@
         <v>45282</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55890,7 +55890,7 @@
         <v>45666</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55947,7 +55947,7 @@
         <v>45272.95590277778</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56009,7 +56009,7 @@
         <v>45735</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56066,7 +56066,7 @@
         <v>45099</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56123,7 +56123,7 @@
         <v>44817.94894675926</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56185,7 +56185,7 @@
         <v>45266</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56247,7 +56247,7 @@
         <v>45734.53167824074</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56309,7 +56309,7 @@
         <v>45763</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56371,7 +56371,7 @@
         <v>45770.36570601852</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56433,7 +56433,7 @@
         <v>45777.63572916666</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56495,7 +56495,7 @@
         <v>44988.93965277778</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56557,7 +56557,7 @@
         <v>45599.74957175926</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56614,7 +56614,7 @@
         <v>45779.4949537037</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56676,7 +56676,7 @@
         <v>45785.55258101852</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56733,7 +56733,7 @@
         <v>45786.64646990741</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56795,7 +56795,7 @@
         <v>45791.42770833334</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56857,7 +56857,7 @@
         <v>45793.59431712963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56919,7 +56919,7 @@
         <v>45793.42809027778</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56981,7 +56981,7 @@
         <v>45797.34456018519</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         <v>45750.5587962963</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57100,7 +57100,7 @@
         <v>45436</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -575,7 +575,7 @@
         <v>45826</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45481.50050925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45481.44920138889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44354.5665162037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517.61098379629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>45201</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45826</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45811.34444444445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44498.63015046297</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45617</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45939.36972222223</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45177</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>46038.31931712963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45810</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44861</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45826</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45915</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44960</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45810</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45613</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>46038.34517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45805.41388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45016.07569444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44986</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44987</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45898.365</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45952.34454861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45960.574375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45443</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44823</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45898</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45903.69844907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45093.60384259259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45925.34439814815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45880.3647337963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45936.46305555556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45937.63756944444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>45208</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>46036.57505787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45562</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>45910</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45761</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>45236.40642361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45568</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>45505</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>45811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>45810</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44490.65641203704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44727.65446759259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44426.69363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>44858.49686342593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44519.49189814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44615.35633101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44420.34442129629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44808.95638888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44756.49922453704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44803.43947916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44851.95386574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44847.94993055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44687.29710648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44797.94505787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44767.94136574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44795.94395833334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44526.36642361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44817.94888888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44381</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44477.49746527777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44381.91863425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44817.94775462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44459</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44341</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44490.60037037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44694</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44694.53769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44678</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44755</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44795</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44519.41366898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44858</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44747</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44861.95710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44607.94155092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44872.95690972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44531</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44433.64141203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44686.94269675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44385.93583333334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44350</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44455.60459490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44781</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44386.56488425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44496.39971064815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44498.61892361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44496</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44472</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44498.62789351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44711</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44704.59678240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44704.6177662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44915.94381944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44915.94388888889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45488.4725925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45643.65672453704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44377.76381944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45677</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45316</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45218.34753472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45443</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45106.94461805555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44398.93342592593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45114</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45698.85268518519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44985.94431712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44985</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45754</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45561</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45590.40659722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44761</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45036</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45597.49931712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>45035</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45320</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45517</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45099.62826388889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45309</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45147</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45559.61655092592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45526.36461805556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45092</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45611</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44516.34648148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45107.44431712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45071.92619212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44698</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44935.97217592593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44376.93355324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45635</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45104</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45120.43883101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44592.37475694445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45266.95105324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45426</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45761</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>44671.94822916666</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>44687.30193287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44922.94351851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45625.42743055556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>45481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45485.39127314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45463.58333333334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45463.58702546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45177.50853009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45266</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>45443</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45679</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45814</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45770.61505787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45814</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45814.39700231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45329</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45329</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>45818</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45884.5409375</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>45637</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>45884.54922453704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>45820.6775</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45575.36512731481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45889.67877314815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45825.34444444445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44943.50074074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44739</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45888.69388888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45677</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45476.31515046296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45476.31981481481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45889.3547800926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45236.4175</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45888.54513888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45236.45083333334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45888.53960648148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45505.95209490741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45889.36145833333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45827</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45369</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45890</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45890</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45890.34418981482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45826.49555555556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45558</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45826</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45826.49273148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45826</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45758.3859375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45826.57112268519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45827.34677083333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45890</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45895.72991898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45826.32945601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45174.93857638889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45894.38201388889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>45892.69835648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45895.48251157408</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45895.63664351852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45826.31524305556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45826</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45826.48354166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45894.37039351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45893.69837962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45894.53172453704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45894.69829861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45831.62219907407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45831</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45894.53178240741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45895.48373842592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45831</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45831.60331018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>45831.61457175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45833.34509259259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45576</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>45457.96425925926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45833.51791666666</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45897.63563657407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45705.46724537037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45832</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45174</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>45481</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45481</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>45481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45833.39784722222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45832</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45832</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45832</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45005</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45898.53180555555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45832.34510416666</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45775.44128472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44866</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45265.95873842593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45265.95881944444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45901.55246527777</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45713</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45835.69831018519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45898.55245370371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45121.45128472222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45901.55268518518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>45068</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45463.57846064815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>45835.52561342593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>45903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>45903.65673611111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>45205</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45835.64210648148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45838.67253472222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45838.70978009259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44503</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45905.59663194444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45839.68309027778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45904.61506944444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45316</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44376.93453703704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45790</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45839.60825231481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45266.6125</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45198.52241898148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45839.37024305556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45839.51207175926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45206</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>45909.32541666667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>45839.79112268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>45777.55259259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45615</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44845.95304398148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45908.6425</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45463</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45911.57329861111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45911.60609953704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45910.71481481481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45910</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45911.61565972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45911.51107638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45842</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45505</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45915.39046296296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45113.94976851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45915.45715277778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>45915.67774305555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>45841.83299768518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>45841.83383101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45912.34260416667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45846.34438657408</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45915.62952546297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45915.43275462963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44952</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>45915.63162037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45849.42777777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45916.54385416667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45916.65673611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45848.38278935185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>45849.34042824074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45916.54280092593</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45849.46943287037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45917.47184027778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45916.34494212963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45848.36859953704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45848.3715625</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45846.34537037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45849.40900462963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>45849.5046875</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45849.51297453704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45488.94793981482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45176</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45916.58086805556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45916.50414351852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45917.56386574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>45481.46547453704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>45481.60922453704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45198</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44935.97194444444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45854.33944444444</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45856.49295138889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45919.62422453704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45918.65660879629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45856.52092592593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>45922</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45856</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45922.42104166667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>45540.34417824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45923.47471064814</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>45923.4768287037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45923.47857638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>45553.76251157407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>45215.87696759259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>45666</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44952</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>45922.57350694444</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>45534.63957175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45863.44965277778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45863.44001157407</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45867</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45562.5971412037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45562.62887731481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45867.63604166666</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45867</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45867.39787037037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45867.68413194444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>45646</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45867.43743055555</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45649</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45867.505</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45867.34443287037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45867.70578703703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>45868.56623842593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45925.34475694445</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45868.61376157407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45868.69234953704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45869.47054398148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45870.36071759259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>45754.62675925926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45510.97013888889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>45929.58471064815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>45926.34449074074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45105.86278935185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45167</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45926.65686342592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44936.86325231481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>45190.47796296296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>45870.41331018518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>45926.61768518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45870.57207175926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45149</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45037.94150462963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>45870.69335648148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>44722</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>45930.56827546296</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45077.45833333334</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45874.36677083333</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>45874.6078587963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45930.63641203703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45874.61203703703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45931.61092592592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>45387.95421296296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45932.34476851852</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44356.93478009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45573</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45510</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45484.58983796297</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45484.6541087963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>45113.94958333333</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45595</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45877.31953703704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45561</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>45636</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>45463.58045138889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>45932.34454861111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45880.74818287037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>45880.75725694445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45880.7615162037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>45881.4718287037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>45883.67765046296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>45881.46734953704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>45883.67813657408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>45882.65576388889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>45883.71945601852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>45881.47364583334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>45882.64888888889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30470,7 +30470,7 @@
         <v>45883.34482638889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>45208.62702546296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>45883.67800925926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>45881.44828703703</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45882.65986111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45757</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45883.34452546296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>45882.64618055556</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>45937.53739583334</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>45937.37208333334</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45883.61994212963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45939.32709490741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45881.40665509259</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45769.65708333333</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45939.35900462963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>45937.62199074074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45938.37679398148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>45937.31471064815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45939.59351851852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>45939.33030092593</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>45937.45689814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>45562</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45939.37686342592</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45938.43431712963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45938.43741898148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45443</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>45488.46452546296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>45940.34538194445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>45665.4312037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45943.71912037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>45944.3794212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45944.41266203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45944.39729166667</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45214.87300925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45214.93665509259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45944.75725694445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45944.45733796297</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45944.55519675926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45944.57844907408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45944.59637731482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45944.56780092593</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45943.79672453704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45944.41163194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>45944.55862268519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45793.55854166667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45944.3453125</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45944.45122685185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>45944.45759259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45946.59537037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44971.93078703704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45947.63258101852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>45103</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33773,7 +33773,7 @@
         <v>44426.68600694444</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45947.48685185185</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45182</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45947.44662037037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45947.4753125</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45562.52640046296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45533.5966087963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45774.81648148148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>45950.65675925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45950.38591435185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45950.36554398148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45538</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45950.49023148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45951.4962037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45953.67081018518</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>45481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>45953.32070601852</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>45953.38861111111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>45953.3316550926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>45953.36392361111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>45356</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45061</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>45523.53366898148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45698.63582175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45041</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45952.63707175926</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45955.49012731481</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45329</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>45955.61505787037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>45954.71922453704</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>45955.48998842593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>45204</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>45958.56741898148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35779,7 +35779,7 @@
         <v>45958.63582175926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>45484</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>45484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>45565.33832175926</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>45478</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36079,7 +36079,7 @@
         <v>45960.69875</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36141,7 +36141,7 @@
         <v>45450</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>45965.32998842592</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>45112.41425925926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>45618.43826388889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>45481.47248842593</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>45567</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>45154.58393518518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36570,7 +36570,7 @@
         <v>45967.51125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36632,7 +36632,7 @@
         <v>45198</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36689,7 +36689,7 @@
         <v>45966.70601851852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36751,7 +36751,7 @@
         <v>45966.71070601852</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>45966.72503472222</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>45966.67761574074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45966.64833333333</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36999,7 +36999,7 @@
         <v>45329</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>45967.67780092593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>44970</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37180,7 +37180,7 @@
         <v>45971.65574074074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37242,7 +37242,7 @@
         <v>45971.34835648148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45968.49219907408</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45756.57346064815</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45968.47324074074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45737</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45665.77418981482</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45973.59322916667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>45629</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>45972.69997685185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45975.49438657407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45975.47174768519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45622.59480324074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>45645</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>45975.48168981481</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>45974.5987037037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>45975.5490625</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>45534.3956712963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45471</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45600.61493055556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45719</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45978.36053240741</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>45979.4640625</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45561</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>45978.68910879629</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45981.70042824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45980.345625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>45980.40270833333</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38851,7 +38851,7 @@
         <v>45559.64984953704</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>45772.55646990741</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38975,7 +38975,7 @@
         <v>45981.45693287037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>44524</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>45985.61600694444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39156,7 +39156,7 @@
         <v>45985.59456018519</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>45985.63663194444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>45546.34490740741</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45985.63626157407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39404,7 +39404,7 @@
         <v>45566</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39466,7 +39466,7 @@
         <v>45762.45550925926</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>45566.40032407407</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>45756.30644675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39642,7 +39642,7 @@
         <v>45985.61247685185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>45121</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39766,7 +39766,7 @@
         <v>45743</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>45986.598125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39890,7 +39890,7 @@
         <v>45986.46958333333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39947,7 +39947,7 @@
         <v>45988.84578703704</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40004,7 +40004,7 @@
         <v>45029.94212962963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         <v>45993</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         <v>46035.44826388889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         <v>44980.93821759259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45993.36509259259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45705</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45077.54615740741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>44505</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45992.81230324074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>46036.58723379629</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>44859</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40718,7 +40718,7 @@
         <v>46036.37449074074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40780,7 +40780,7 @@
         <v>46036.37225694444</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40842,7 +40842,7 @@
         <v>45720.57324074074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>44322.93407407407</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>46036.603125</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>46036.65756944445</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>45995.56527777778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>45113</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>44551</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>46038.34892361111</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45479.9489699074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>44938.93849537037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45996.65587962963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>44449.42745370371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45775.45503472222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>46001.57803240741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45622.63604166666</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>46001.68094907407</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45078.94167824074</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41881,7 +41881,7 @@
         <v>45246.96921296296</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>46001.68630787037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>46001.59894675926</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>45189</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>45574.59653935185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>46042.67096064815</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45379.93677083333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42310,7 +42310,7 @@
         <v>45551.34447916667</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>46001.59224537037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45282.61475694444</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42491,7 +42491,7 @@
         <v>44328</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>45576.82554398148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>46045.44380787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42672,7 +42672,7 @@
         <v>45330.93173611111</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42729,7 +42729,7 @@
         <v>45448.94409722222</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45560.33498842592</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>46006.52695601852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>46006.67302083333</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43096,7 +43096,7 @@
         <v>46007.32546296297</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>45149</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45677</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>46049.42824074074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43339,7 +43339,7 @@
         <v>45551.61681712963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>45330.93196759259</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43453,7 +43453,7 @@
         <v>45072.42990740741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43515,7 +43515,7 @@
         <v>45706</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>46048</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>46049.42774305555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43753,7 +43753,7 @@
         <v>45016</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>44377</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>44952</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45135.45417824074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>46051.3494212963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>46051.36532407408</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>46051.36545138889</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45589.49001157407</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45677</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>46055.59488425926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>46055.36503472222</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44410,7 +44410,7 @@
         <v>45240.94754629629</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>45463</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45463.58829861111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44596,7 +44596,7 @@
         <v>45645</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44653,7 +44653,7 @@
         <v>45476.32990740741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44715,7 +44715,7 @@
         <v>44377</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44834,7 +44834,7 @@
         <v>45443</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>46057.51086805556</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45506</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>46057.46924768519</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45077,7 +45077,7 @@
         <v>46057.490625</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44826</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45316</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>46056.42962962963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>46057.49060185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>46056.4393287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>45574.51344907407</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>46057.51104166666</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45615,7 +45615,7 @@
         <v>45103</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45677,7 +45677,7 @@
         <v>46057.67790509259</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         <v>44894</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>46057.49017361111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45863,7 +45863,7 @@
         <v>45336.44858796296</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45194.66240740741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45684.65501157408</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45113.94913194444</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45174.93927083333</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45771</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45562</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>45440.92835648148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>45463</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>45593.34453703704</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>45593</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46530,7 +46530,7 @@
         <v>45620.91673611111</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46587,7 +46587,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46644,7 +46644,7 @@
         <v>44993.01305555556</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>45770.55261574074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>45246</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46830,7 +46830,7 @@
         <v>45282</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46887,7 +46887,7 @@
         <v>45524.36006944445</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45524</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47011,7 +47011,7 @@
         <v>45590</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47073,7 +47073,7 @@
         <v>45590</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47135,7 +47135,7 @@
         <v>45589</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47197,7 +47197,7 @@
         <v>45601</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45604</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45589</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45601</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47445,7 +47445,7 @@
         <v>45518</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45855</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47559,7 +47559,7 @@
         <v>44992</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47616,7 +47616,7 @@
         <v>45565</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>46070.40673611111</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45604</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>46028.75300925926</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45068</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47916,7 +47916,7 @@
         <v>45154.54208333333</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47978,7 +47978,7 @@
         <v>45448.94569444445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>44592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>44592</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45485.38484953704</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48211,7 +48211,7 @@
         <v>45196.6055324074</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48273,7 +48273,7 @@
         <v>45093.31925925926</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>46073.47167824074</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>46073.47201388889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45545</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>46072.34447916667</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>44993.01296296297</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>45712.51097222222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45590</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>46073.46966435185</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45334.9250925926</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>44879</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48935,7 +48935,7 @@
         <v>44774</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48992,7 +48992,7 @@
         <v>45127</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49054,7 +49054,7 @@
         <v>45559.47989583333</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>45619.7193287037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45387.95409722222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49240,7 +49240,7 @@
         <v>45671</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49302,7 +49302,7 @@
         <v>45428</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49364,7 +49364,7 @@
         <v>45576.43226851852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         <v>45756.57349537037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49488,7 +49488,7 @@
         <v>45645</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45748</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45492</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49664,7 +49664,7 @@
         <v>45705.71922453704</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49721,7 +49721,7 @@
         <v>45378.93795138889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45357</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>45566.94626157408</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45714</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45545</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50026,7 +50026,7 @@
         <v>45576.83114583333</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>45329</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50150,7 +50150,7 @@
         <v>45526.63690972222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>45476</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50274,7 +50274,7 @@
         <v>45560.55664351852</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50336,7 +50336,7 @@
         <v>45392</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50398,7 +50398,7 @@
         <v>45329</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50460,7 +50460,7 @@
         <v>44988.92247685185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         <v>44988.92252314815</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50574,7 +50574,7 @@
         <v>45239.96893518518</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50636,7 +50636,7 @@
         <v>45099</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50698,7 +50698,7 @@
         <v>45196</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         <v>45104.92340277778</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         <v>45104.9234375</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50874,7 +50874,7 @@
         <v>45774.32366898148</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50931,7 +50931,7 @@
         <v>45590</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45113</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>45329</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45772.36670138889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51174,7 +51174,7 @@
         <v>45174.93942129629</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44977.93446759259</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>45092.35770833334</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         <v>45224.57511574074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>45560.35121527778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51479,7 +51479,7 @@
         <v>45481.37263888889</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>44936</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51598,7 +51598,7 @@
         <v>44888</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>45713</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51717,7 +51717,7 @@
         <v>45364</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51774,7 +51774,7 @@
         <v>45014</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51831,7 +51831,7 @@
         <v>45590</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51888,7 +51888,7 @@
         <v>45639.40667824074</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51950,7 +51950,7 @@
         <v>44925.93875</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52012,7 +52012,7 @@
         <v>45670</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52069,7 +52069,7 @@
         <v>45189</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52126,7 +52126,7 @@
         <v>45282.94709490741</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52188,7 +52188,7 @@
         <v>44953.97421296296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52250,7 +52250,7 @@
         <v>45762.43146990741</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52307,7 +52307,7 @@
         <v>45635</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52369,7 +52369,7 @@
         <v>44908</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52426,7 +52426,7 @@
         <v>45566.85192129629</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52488,7 +52488,7 @@
         <v>45761</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52545,7 +52545,7 @@
         <v>45187.50721064815</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52602,7 +52602,7 @@
         <v>45481.40775462963</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52664,7 +52664,7 @@
         <v>45505.95200231481</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52726,7 +52726,7 @@
         <v>45114.4889699074</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52788,7 +52788,7 @@
         <v>45098</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52850,7 +52850,7 @@
         <v>44533.94483796296</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>45491.4734375</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52974,7 +52974,7 @@
         <v>45712.51121527778</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>45600.45456018519</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53098,7 +53098,7 @@
         <v>45167</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         <v>45502</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53217,7 +53217,7 @@
         <v>45576.40248842593</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53279,7 +53279,7 @@
         <v>45147.32908564815</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53341,7 +53341,7 @@
         <v>45534.30681712963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53403,7 +53403,7 @@
         <v>45484.59297453704</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53465,7 +53465,7 @@
         <v>45758.5525462963</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53527,7 +53527,7 @@
         <v>44952</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53584,7 +53584,7 @@
         <v>45272</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53646,7 +53646,7 @@
         <v>45037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53703,7 +53703,7 @@
         <v>44356.93482638889</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53765,7 +53765,7 @@
         <v>45313.76722222222</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53827,7 +53827,7 @@
         <v>45341.92533564815</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53884,7 +53884,7 @@
         <v>45510</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53946,7 +53946,7 @@
         <v>45622.58969907407</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54003,7 +54003,7 @@
         <v>45316</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54060,7 +54060,7 @@
         <v>45481.41788194444</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54122,7 +54122,7 @@
         <v>45610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54184,7 +54184,7 @@
         <v>44379.50560185185</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54246,7 +54246,7 @@
         <v>44888</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54303,7 +54303,7 @@
         <v>45148.3397337963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54365,7 +54365,7 @@
         <v>45560.34202546296</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54427,7 +54427,7 @@
         <v>45313</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54489,7 +54489,7 @@
         <v>45774.7928587963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         <v>45774.80667824074</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54603,7 +54603,7 @@
         <v>45645</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45282</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54722,7 +54722,7 @@
         <v>45666</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         <v>45272.95590277778</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54841,7 +54841,7 @@
         <v>45735</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54898,7 +54898,7 @@
         <v>45099</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         <v>44817.94894675926</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55017,7 +55017,7 @@
         <v>45266</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55079,7 +55079,7 @@
         <v>45734.53167824074</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45763</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55203,7 +55203,7 @@
         <v>45770.36570601852</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55265,7 +55265,7 @@
         <v>45777.63572916666</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55327,7 +55327,7 @@
         <v>44988.93965277778</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55389,7 +55389,7 @@
         <v>45599.74957175926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55446,7 +55446,7 @@
         <v>45779.4949537037</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55508,7 +55508,7 @@
         <v>45785.55258101852</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55565,7 +55565,7 @@
         <v>45786.64646990741</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55627,7 +55627,7 @@
         <v>45791.42770833334</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55689,7 +55689,7 @@
         <v>45793.59431712963</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55751,7 +55751,7 @@
         <v>45793.42809027778</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55813,7 +55813,7 @@
         <v>45797.34456018519</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55875,7 +55875,7 @@
         <v>45750.5587962963</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55932,7 +55932,7 @@
         <v>45436</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55994,7 +55994,7 @@
         <v>45799.38585648148</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56056,7 +56056,7 @@
         <v>45799</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56118,7 +56118,7 @@
         <v>45798</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56175,7 +56175,7 @@
         <v>45800.64912037037</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56237,7 +56237,7 @@
         <v>45800.66145833334</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56299,7 +56299,7 @@
         <v>45800.63631944444</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56361,7 +56361,7 @@
         <v>45800.67762731481</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56423,7 +56423,7 @@
         <v>45805.44869212963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56485,7 +56485,7 @@
         <v>45805.37388888889</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45805</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56609,7 +56609,7 @@
         <v>44595.92319444445</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56666,7 +56666,7 @@
         <v>45805.3371412037</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56728,7 +56728,7 @@
         <v>45805.36008101852</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56790,7 +56790,7 @@
         <v>45805.36946759259</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56852,7 +56852,7 @@
         <v>45805.32921296296</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56914,7 +56914,7 @@
         <v>45807</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56976,7 +56976,7 @@
         <v>45810.57378472222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57038,7 +57038,7 @@
         <v>45810</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57095,7 +57095,7 @@
         <v>45813</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57157,7 +57157,7 @@
         <v>45813.67741898148</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57219,7 +57219,7 @@
         <v>45541</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57281,7 +57281,7 @@
         <v>45812.34475694445</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57343,7 +57343,7 @@
         <v>45814</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57400,7 +57400,7 @@
         <v>45817</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -575,7 +575,7 @@
         <v>45826</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45481.50050925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45481.44920138889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44354.5665162037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517.61098379629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>45201</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45826</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45811.34444444445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44498.63015046297</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45617</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>45939.36972222223</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45177</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>46038.31931712963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>45356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45810</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44861</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>45826</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45915</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44960</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45810</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45613</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>46038.34517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45805.41388888889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45016.07569444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44986</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44987</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45898.365</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45357</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45952.34454861111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>45960.574375</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45443</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45463</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44823</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45898</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45903.69844907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45093.60384259259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45925.34439814815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45880.3647337963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45936.46305555556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45937.63756944444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>45208</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>46036.57505787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>45562</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>45910</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45761</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>45236.40642361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45568</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>45505</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>45811</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>45810</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44490.65641203704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44727.65446759259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44426.69363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>44858.49686342593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44519.49189814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44615.35633101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44420.34442129629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44776</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44808.95638888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44756.49922453704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44803.43947916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44851.95386574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44847.94993055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44687.29710648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44797.94505787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44767.94136574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44795.94395833334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44526.36642361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44817.94888888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44381</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44477.49746527777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44381.91863425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44817.94775462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44459</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44386</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44341</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44490.60037037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44694</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44694.53769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44678</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44755</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44795</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44519.41366898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44858</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44747</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44861.95710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44607.94155092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44872.95690972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44531</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44433.64141203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44686.94269675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44385.93583333334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44350</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44455.60459490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44781</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44386.56488425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44496.39971064815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44498.61892361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44496</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44472</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44498.62789351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44711</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44704.59678240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44704.6177662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45735</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>45775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44915.94381944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44915.94388888889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45488.4725925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45643.65672453704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44377.76381944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45677</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45316</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45218.34753472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45443</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45106.94461805555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44398.93342592593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45114</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45698.85268518519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44985.94431712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44985</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45754</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45561</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>45590.40659722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44761</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45036</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45597.49931712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>45035</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>45320</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>45517</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45099.62826388889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45309</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45147</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>45559.61655092592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45526.36461805556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45092</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45611</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44516.34648148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45107.44431712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45071.92619212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44698</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44935.97217592593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>44376.93355324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45761</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45635</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45104</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45120.43883101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44592.37475694445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45266.95105324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>45426</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45761</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>44671.94822916666</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>44687.30193287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44922.94351851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45625.42743055556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>45479</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>45481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45720</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45485.39127314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45463.58333333334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45463.58702546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45177.50853009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44984</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45266</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>45443</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45679</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45814</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45770.61505787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45814</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45814.39700231481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45329</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45329</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>45818</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44971</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45884.5409375</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>45637</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>45884.54922453704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>45820.6775</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>45575.36512731481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45889.67877314815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45825.34444444445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44943.50074074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44739</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45888.69388888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45677</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45476.31515046296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45476.31981481481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45889.3547800926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45236.4175</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45888.54513888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45236.45083333334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45888.53960648148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45505.95209490741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45889.36145833333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45827</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45369</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45890</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45890</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45826</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45890.34418981482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45826.49555555556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45558</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45826</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45826.49273148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45826</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45758.3859375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45826.57112268519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45827.34677083333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45890</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45895.72991898148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45826.32945601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45174.93857638889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45894.38201388889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>45892.69835648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45895.48251157408</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45895.63664351852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45826.31524305556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45826</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45826.48354166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45894.37039351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>45893.69837962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45894.53172453704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45894.69829861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45831.62219907407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45831</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45894.53178240741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45895.48373842592</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45831</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45831.60331018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>45831.61457175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45833.34509259259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>45576</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>45457.96425925926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45833.51791666666</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45897.63563657407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>45832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45705.46724537037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45832</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45174</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>45481</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45481</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>45481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>45833.39784722222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45832</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45832</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45832</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45005</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45898.53180555555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45832.34510416666</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45775.44128472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44866</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45265.95873842593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45265.95881944444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45901.55246527777</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45713</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45835.69831018519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45898.55245370371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45121.45128472222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45901.55268518518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>45068</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45463.57846064815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         <v>45835.52561342593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>45903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>45903.65673611111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>45205</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45835.64210648148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45903</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45838.67253472222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45838.70978009259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>44503</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>45905.59663194444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>45839.68309027778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45904.61506944444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45316</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44376.93453703704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45790</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>45839.60825231481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45266.6125</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45198.52241898148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45839.37024305556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45839.51207175926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45206</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>45909.32541666667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>45839.79112268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>45777.55259259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45615</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44845.95304398148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45908.6425</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44908</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45463</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45911.57329861111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45911.60609953704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45910.71481481481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45910</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45911.61565972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45911.51107638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45842</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45505</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45915.39046296296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45113.94976851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45915.45715277778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>45915.67774305555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>45841.83299768518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>45841.83383101852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45912.34260416667</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45846.34438657408</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45915.62952546297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45915.43275462963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>44952</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>45915.63162037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45849.42777777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45916.54385416667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45916.65673611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45848.38278935185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>45849.34042824074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45916.54280092593</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45849.46943287037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45917.47184027778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45916.34494212963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45848.36859953704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45848.3715625</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45846.34537037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45849.40900462963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>45849.5046875</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45849.51297453704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45488.94793981482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45176</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45916.58086805556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45916.50414351852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45917.56386574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>45481.46547453704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>45481.60922453704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45198</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44935.97194444444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45854.33944444444</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45856.49295138889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45919.62422453704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45918.65660879629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45856.52092592593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>45922</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45856</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>45922.42104166667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>45540.34417824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>45923.47471064814</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>45923.4768287037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45923.47857638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>45553.76251157407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>45215.87696759259</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>45666</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44952</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>45922.57350694444</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>45534.63957175926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>45863.44965277778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45863.44001157407</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45867</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45562.5971412037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45562.62887731481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45867.63604166666</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45867</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45867.39787037037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45867.68413194444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>45646</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45867.43743055555</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45649</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45867.505</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45867.34443287037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45867.70578703703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
         <v>45868.56623842593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45925.34475694445</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45868.61376157407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45868.69234953704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>45868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45869.47054398148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45870.36071759259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>45754.62675925926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45510.97013888889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         <v>45929.58471064815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>45926.34449074074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45105.86278935185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45167</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45926.65686342592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44936.86325231481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>45190.47796296296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>45870.41331018518</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>45926.61768518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45870.57207175926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45149</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45037.94150462963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>45870.69335648148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>44722</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>45930.56827546296</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45077.45833333334</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45874.36677083333</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>45874.6078587963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45930.63641203703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45874.61203703703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45068</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45931.61092592592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>45387.95421296296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45932.34476851852</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44356.93478009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45573</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45510</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45484.58983796297</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45484.6541087963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>45113.94958333333</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45595</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45877.31953703704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45561</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>45636</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>45463.58045138889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>45932.34454861111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45880.74818287037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>45880.75725694445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45880.7615162037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>45881.4718287037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>45883.67765046296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>45881.46734953704</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>45883.67813657408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>45882.65576388889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>45883.71945601852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>45881.47364583334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>44697</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>45882.64888888889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30470,7 +30470,7 @@
         <v>45883.34482638889</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>45208.62702546296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>45883.67800925926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>45881.44828703703</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45882.65986111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45757</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45883.34452546296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>45882.64618055556</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>45937.53739583334</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>45937.37208333334</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>45883.61994212963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45939.32709490741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45881.40665509259</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45769.65708333333</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45799</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45939.35900462963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>45937.62199074074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45938.37679398148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>45937.31471064815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>45939.59351851852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>45939.33030092593</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>45937.45689814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>45562</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45939.37686342592</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45938.43431712963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45938.43741898148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>45443</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>45488.46452546296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>45940.34538194445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>45665.4312037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45943.71912037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>45944.3794212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45944.41266203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45944.39729166667</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45214.87300925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45214.93665509259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>45944.75725694445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45944.45733796297</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45944.55519675926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45944.57844907408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45944.59637731482</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45944.56780092593</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45943.79672453704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45944.41163194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>45944.55862268519</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45793.55854166667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45944.3453125</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45944.45122685185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>45944.45759259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45946.59537037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>44971.93078703704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45947.63258101852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>45103</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33773,7 +33773,7 @@
         <v>44426.68600694444</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45947.48685185185</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>45182</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45947.44662037037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45947.4753125</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45562.52640046296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45533.5966087963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45774.81648148148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>45950.65675925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45950.38591435185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45950.36554398148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45538</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45950.49023148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45951.4962037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45953.67081018518</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>45481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>45953.32070601852</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>45953.38861111111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>45953.3316550926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>45953.36392361111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>45356</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45061</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>45523.53366898148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45698.63582175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45041</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45952.63707175926</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45955.49012731481</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45329</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>45955.61505787037</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>45954.71922453704</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>45955.48998842593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>45204</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35717,7 +35717,7 @@
         <v>45958.56741898148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35779,7 +35779,7 @@
         <v>45958.63582175926</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         <v>45484</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>45484</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>45565.33832175926</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>45478</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36079,7 +36079,7 @@
         <v>45960.69875</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36141,7 +36141,7 @@
         <v>45450</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36203,7 +36203,7 @@
         <v>45965.32998842592</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36265,7 +36265,7 @@
         <v>45112.41425925926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36327,7 +36327,7 @@
         <v>45618.43826388889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>45481.47248842593</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>45567</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>45154.58393518518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36570,7 +36570,7 @@
         <v>45967.51125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36632,7 +36632,7 @@
         <v>45198</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36689,7 +36689,7 @@
         <v>45966.70601851852</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36751,7 +36751,7 @@
         <v>45966.71070601852</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>45966.72503472222</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>45966.67761574074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
         <v>45966.64833333333</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36999,7 +36999,7 @@
         <v>45329</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>45967.67780092593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>44970</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37180,7 +37180,7 @@
         <v>45971.65574074074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37242,7 +37242,7 @@
         <v>45971.34835648148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45968.49219907408</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45756.57346064815</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45968.47324074074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45737</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45665.77418981482</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45973.59322916667</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>45629</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>45972.69997685185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45975.49438657407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45975.47174768519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45622.59480324074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37971,7 +37971,7 @@
         <v>45645</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>45975.48168981481</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>45974.5987037037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>45975.5490625</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>45534.3956712963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45471</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45600.61493055556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45719</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>45978.36053240741</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>45979.4640625</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45561</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>45978.68910879629</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>45981.70042824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45980.345625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>45980.40270833333</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38851,7 +38851,7 @@
         <v>45559.64984953704</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>45772.55646990741</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38975,7 +38975,7 @@
         <v>45981.45693287037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>44524</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>45985.61600694444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39156,7 +39156,7 @@
         <v>45985.59456018519</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>45985.63663194444</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>45546.34490740741</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45985.63626157407</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39404,7 +39404,7 @@
         <v>45566</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39466,7 +39466,7 @@
         <v>45762.45550925926</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39523,7 +39523,7 @@
         <v>45566.40032407407</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>45756.30644675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39642,7 +39642,7 @@
         <v>45985.61247685185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>45121</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39766,7 +39766,7 @@
         <v>45743</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>45986.598125</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39890,7 +39890,7 @@
         <v>45986.46958333333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39947,7 +39947,7 @@
         <v>45988.84578703704</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40004,7 +40004,7 @@
         <v>45029.94212962963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         <v>45993</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         <v>46035.44826388889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         <v>44980.93821759259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45140</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45993.36509259259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>45705</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45077.54615740741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>44505</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45992.81230324074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>46036.58723379629</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>44859</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40718,7 +40718,7 @@
         <v>46036.37449074074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40780,7 +40780,7 @@
         <v>46036.37225694444</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40842,7 +40842,7 @@
         <v>45720.57324074074</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>44322.93407407407</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>46036.603125</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>46036.65756944445</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41090,7 +41090,7 @@
         <v>45995.56527777778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>45113</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41209,7 +41209,7 @@
         <v>44551</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>46038.34892361111</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45479.9489699074</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>44938.93849537037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45996.65587962963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>44449.42745370371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45775.45503472222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>46001.57803240741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>45622.63604166666</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>46001.68094907407</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45078.94167824074</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41881,7 +41881,7 @@
         <v>45246.96921296296</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>46001.68630787037</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42005,7 +42005,7 @@
         <v>46001.59894675926</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         <v>45189</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42124,7 +42124,7 @@
         <v>45574.59653935185</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42186,7 +42186,7 @@
         <v>46042.67096064815</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42248,7 +42248,7 @@
         <v>45379.93677083333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42310,7 +42310,7 @@
         <v>45551.34447916667</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>46001.59224537037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>45282.61475694444</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42491,7 +42491,7 @@
         <v>44328</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>45576.82554398148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>46045.44380787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42672,7 +42672,7 @@
         <v>45330.93173611111</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42729,7 +42729,7 @@
         <v>45448.94409722222</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45774</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         <v>45560.33498842592</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>46006.52695601852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>46006.67302083333</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43096,7 +43096,7 @@
         <v>46007.32546296297</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43158,7 +43158,7 @@
         <v>45149</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45677</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>46049.42824074074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43339,7 +43339,7 @@
         <v>45551.61681712963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>45330.93196759259</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43453,7 +43453,7 @@
         <v>45072.42990740741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43515,7 +43515,7 @@
         <v>45706</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>46048</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>46049.42774305555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43753,7 +43753,7 @@
         <v>45016</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>44377</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>44952</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45135.45417824074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>46051.3494212963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>46051.36532407408</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>46051.36545138889</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45589.49001157407</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45677</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44286,7 +44286,7 @@
         <v>46055.59488425926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>46055.36503472222</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44410,7 +44410,7 @@
         <v>45240.94754629629</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>45463</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45463.58829861111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44596,7 +44596,7 @@
         <v>45645</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44653,7 +44653,7 @@
         <v>45476.32990740741</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44715,7 +44715,7 @@
         <v>44377</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44834,7 +44834,7 @@
         <v>45443</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>46057.51086805556</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45506</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>46057.46924768519</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45077,7 +45077,7 @@
         <v>46057.490625</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44826</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>44781</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45316</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>46056.42962962963</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>46057.49060185185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>46056.4393287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>45574.51344907407</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>46057.51104166666</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45615,7 +45615,7 @@
         <v>45103</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45677,7 +45677,7 @@
         <v>46057.67790509259</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         <v>44894</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>46057.49017361111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45863,7 +45863,7 @@
         <v>45336.44858796296</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45194.66240740741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45684.65501157408</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45113.94913194444</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45174.93927083333</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45771</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45562</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>45440.92835648148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>45463</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>45593.34453703704</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>45593</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46530,7 +46530,7 @@
         <v>45620.91673611111</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46587,7 +46587,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46644,7 +46644,7 @@
         <v>44993.01305555556</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>45770.55261574074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46768,7 +46768,7 @@
         <v>45246</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46830,7 +46830,7 @@
         <v>45282</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46887,7 +46887,7 @@
         <v>45524.36006944445</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45524</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47011,7 +47011,7 @@
         <v>45590</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47073,7 +47073,7 @@
         <v>45590</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47135,7 +47135,7 @@
         <v>45589</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47197,7 +47197,7 @@
         <v>45601</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45604</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45589</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>45601</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47445,7 +47445,7 @@
         <v>45518</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>45855</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47559,7 +47559,7 @@
         <v>44992</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47616,7 +47616,7 @@
         <v>45565</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47678,7 +47678,7 @@
         <v>46070.40673611111</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47740,7 +47740,7 @@
         <v>45604</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47802,7 +47802,7 @@
         <v>46028.75300925926</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45068</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47916,7 +47916,7 @@
         <v>45154.54208333333</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47978,7 +47978,7 @@
         <v>45448.94569444445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>44592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48097,7 +48097,7 @@
         <v>44592</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48154,7 +48154,7 @@
         <v>45485.38484953704</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48211,7 +48211,7 @@
         <v>45196.6055324074</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48273,7 +48273,7 @@
         <v>45093.31925925926</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>46073.47167824074</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>46073.47201388889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45545</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48511,7 +48511,7 @@
         <v>46072.34447916667</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>44993.01296296297</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>45712.51097222222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45590</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>46073.46966435185</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45334.9250925926</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>44879</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48935,7 +48935,7 @@
         <v>44774</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48992,7 +48992,7 @@
         <v>45127</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49054,7 +49054,7 @@
         <v>45559.47989583333</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49116,7 +49116,7 @@
         <v>45619.7193287037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49178,7 +49178,7 @@
         <v>45387.95409722222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49240,7 +49240,7 @@
         <v>45671</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49302,7 +49302,7 @@
         <v>45428</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49364,7 +49364,7 @@
         <v>45576.43226851852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         <v>45756.57349537037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49488,7 +49488,7 @@
         <v>45645</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45748</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45492</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49664,7 +49664,7 @@
         <v>45705.71922453704</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49721,7 +49721,7 @@
         <v>45378.93795138889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>45357</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>45566.94626157408</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45714</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45545</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50026,7 +50026,7 @@
         <v>45576.83114583333</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>45329</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50150,7 +50150,7 @@
         <v>45526.63690972222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50212,7 +50212,7 @@
         <v>45476</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50274,7 +50274,7 @@
         <v>45560.55664351852</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50336,7 +50336,7 @@
         <v>45392</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50398,7 +50398,7 @@
         <v>45329</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50460,7 +50460,7 @@
         <v>44988.92247685185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         <v>44988.92252314815</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50574,7 +50574,7 @@
         <v>45239.96893518518</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50636,7 +50636,7 @@
         <v>45099</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50698,7 +50698,7 @@
         <v>45196</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         <v>45104.92340277778</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         <v>45104.9234375</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50874,7 +50874,7 @@
         <v>45774.32366898148</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50931,7 +50931,7 @@
         <v>45590</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45113</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>45329</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45772.36670138889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51174,7 +51174,7 @@
         <v>45174.93942129629</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51236,7 +51236,7 @@
         <v>44977.93446759259</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51293,7 +51293,7 @@
         <v>45092.35770833334</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         <v>45224.57511574074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         <v>45560.35121527778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51479,7 +51479,7 @@
         <v>45481.37263888889</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>44936</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51598,7 +51598,7 @@
         <v>44888</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>45713</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51717,7 +51717,7 @@
         <v>45364</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51774,7 +51774,7 @@
         <v>45014</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51831,7 +51831,7 @@
         <v>45590</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51888,7 +51888,7 @@
         <v>45639.40667824074</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51950,7 +51950,7 @@
         <v>44925.93875</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52012,7 +52012,7 @@
         <v>45670</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52069,7 +52069,7 @@
         <v>45189</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52126,7 +52126,7 @@
         <v>45282.94709490741</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52188,7 +52188,7 @@
         <v>44953.97421296296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52250,7 +52250,7 @@
         <v>45762.43146990741</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52307,7 +52307,7 @@
         <v>45635</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52369,7 +52369,7 @@
         <v>44908</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52426,7 +52426,7 @@
         <v>45566.85192129629</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52488,7 +52488,7 @@
         <v>45761</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52545,7 +52545,7 @@
         <v>45187.50721064815</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52602,7 +52602,7 @@
         <v>45481.40775462963</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52664,7 +52664,7 @@
         <v>45505.95200231481</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52726,7 +52726,7 @@
         <v>45114.4889699074</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52788,7 +52788,7 @@
         <v>45098</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52850,7 +52850,7 @@
         <v>44533.94483796296</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>45491.4734375</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52974,7 +52974,7 @@
         <v>45712.51121527778</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53036,7 +53036,7 @@
         <v>45600.45456018519</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53098,7 +53098,7 @@
         <v>45167</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         <v>45502</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53217,7 +53217,7 @@
         <v>45576.40248842593</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53279,7 +53279,7 @@
         <v>45147.32908564815</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53341,7 +53341,7 @@
         <v>45534.30681712963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53403,7 +53403,7 @@
         <v>45484.59297453704</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53465,7 +53465,7 @@
         <v>45758.5525462963</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53527,7 +53527,7 @@
         <v>44952</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53584,7 +53584,7 @@
         <v>45272</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53646,7 +53646,7 @@
         <v>45037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53703,7 +53703,7 @@
         <v>44356.93482638889</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53765,7 +53765,7 @@
         <v>45313.76722222222</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53827,7 +53827,7 @@
         <v>45341.92533564815</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53884,7 +53884,7 @@
         <v>45510</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53946,7 +53946,7 @@
         <v>45622.58969907407</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54003,7 +54003,7 @@
         <v>45316</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54060,7 +54060,7 @@
         <v>45481.41788194444</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54122,7 +54122,7 @@
         <v>45610</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54184,7 +54184,7 @@
         <v>44379.50560185185</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54246,7 +54246,7 @@
         <v>44888</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54303,7 +54303,7 @@
         <v>45148.3397337963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54365,7 +54365,7 @@
         <v>45560.34202546296</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54427,7 +54427,7 @@
         <v>45313</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54489,7 +54489,7 @@
         <v>45774.7928587963</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         <v>45774.80667824074</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54603,7 +54603,7 @@
         <v>45645</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45282</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54722,7 +54722,7 @@
         <v>45666</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         <v>45272.95590277778</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54841,7 +54841,7 @@
         <v>45735</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54898,7 +54898,7 @@
         <v>45099</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         <v>44817.94894675926</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55017,7 +55017,7 @@
         <v>45266</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55079,7 +55079,7 @@
         <v>45734.53167824074</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         <v>45763</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55203,7 +55203,7 @@
         <v>45770.36570601852</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55265,7 +55265,7 @@
         <v>45777.63572916666</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55327,7 +55327,7 @@
         <v>44988.93965277778</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55389,7 +55389,7 @@
         <v>45599.74957175926</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55446,7 +55446,7 @@
         <v>45779.4949537037</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55508,7 +55508,7 @@
         <v>45785.55258101852</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55565,7 +55565,7 @@
         <v>45786.64646990741</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55627,7 +55627,7 @@
         <v>45791.42770833334</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55689,7 +55689,7 @@
         <v>45793.59431712963</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55751,7 +55751,7 @@
         <v>45793.42809027778</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55813,7 +55813,7 @@
         <v>45797.34456018519</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55875,7 +55875,7 @@
         <v>45750.5587962963</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55932,7 +55932,7 @@
         <v>45436</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55994,7 +55994,7 @@
         <v>45799.38585648148</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56056,7 +56056,7 @@
         <v>45799</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56118,7 +56118,7 @@
         <v>45798</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56175,7 +56175,7 @@
         <v>45800.64912037037</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56237,7 +56237,7 @@
         <v>45800.66145833334</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56299,7 +56299,7 @@
         <v>45800.63631944444</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56361,7 +56361,7 @@
         <v>45800.67762731481</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56423,7 +56423,7 @@
         <v>45805.44869212963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56485,7 +56485,7 @@
         <v>45805.37388888889</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45805</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56609,7 +56609,7 @@
         <v>44595.92319444445</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56666,7 +56666,7 @@
         <v>45805.3371412037</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56728,7 +56728,7 @@
         <v>45805.36008101852</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56790,7 +56790,7 @@
         <v>45805.36946759259</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56852,7 +56852,7 @@
         <v>45805.32921296296</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56914,7 +56914,7 @@
         <v>45807</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56976,7 +56976,7 @@
         <v>45810.57378472222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57038,7 +57038,7 @@
         <v>45810</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57095,7 +57095,7 @@
         <v>45813</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57157,7 +57157,7 @@
         <v>45813.67741898148</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57219,7 +57219,7 @@
         <v>45541</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57281,7 +57281,7 @@
         <v>45812.34475694445</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57343,7 +57343,7 @@
         <v>45814</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57400,7 +57400,7 @@
         <v>45817</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -575,7 +575,7 @@
         <v>45826</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45481.50050925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45481.44920138889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44354.5665162037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517.61098379629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>45201</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45811.34444444445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44498.63015046297</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45810</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45617</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45939.36972222223</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>46038.31931712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44960</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44861</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45810</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45805.41388888889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45613</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>46038.34517361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45443</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45463</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45898.365</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45016.07569444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45952.34454861111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45960.574375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44987</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44986</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45357</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44823</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45505</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45811</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45898</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45903.69844907407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45093.60384259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45925.34439814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>45880.3647337963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45936.46305555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45937.63756944444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45236.40642361111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45761</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45910</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>45280</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>45568</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45562</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>46036.57505787037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44727.65446759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44426.69363425926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44858.49686342593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>44490.65641203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44519.49189814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44615.35633101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44420.34442129629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44808.95638888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44803.43947916666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44756.49922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44851.95386574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44847.94993055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44687.29710648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44797.94505787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44767.94136574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44795.94395833334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44526.36642361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44817.94888888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44381</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44477.49746527777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44381.91863425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44817.94775462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44386</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44459</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44341</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44490.60037037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44694</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44694.53769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44678</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44755</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44795</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44519.41366898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44858</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44747</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44861.95710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44607.94155092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44872.95690972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44531</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44686.94269675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44433.64141203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44385.93583333334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44350</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44455.60459490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44386.56488425926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44496.39971064815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44781</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44498.61892361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44496</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44472</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44498.62789351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44711</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44704.59678240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44704.6177662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45329</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44356.93478009259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>45329</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45772.36670138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45206</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>45068</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>45208.62702546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45196.6055324074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>45196</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>45378.93795138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44866</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>45757</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>45205</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45369</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45336.44858796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45734.53167824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45428</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45758.3859375</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45463</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45463.58829861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45619.7193287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45223</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45113.94913194444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>45534.3956712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45392</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44953.97421296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45551.61681712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44426.68600694444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45443</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45457.96425925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45272</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45526.36461805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>45484.58983796297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>45443</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44379.50560185185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45154.54208333333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44908</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45135.45417824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44936</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45174.93857638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45620.91673611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44993.01305555556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>45533.5966087963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44377</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45491.4734375</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45176</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45481.46547453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>45443</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45476.32990740741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44980.93821759259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44935.97194444444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45510</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45481.37263888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45576.43226851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45545</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45316</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45488.94793981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45590</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44915.94381944444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44985</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45566.94626157408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45883.34452546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45881.40665509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>45881.44828703703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>45198</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>44984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>44888</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>45805.36946759259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45805.44869212963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45805.36008101852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>45805.32921296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45805.3371412037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45805</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45881.47364583334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45883.34482638889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45677</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45805.37388888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45888.69388888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45810</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45810.57378472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45476.31515046296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45476.31981481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45807</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45827</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45541</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45551.34447916667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45888.53960648148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45888.54513888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45812.34475694445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45114</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45890.34418981482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45889.3547800926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45813.67741898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45814</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45814</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45889.36145833333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45814</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45814.39700231481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45574.59653935185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45813</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45890</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>44524</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>45194.66240740741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>45565.33832175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45889.67877314815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45558</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45706</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45818</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45562</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45147.32908564815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45894.53172453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45894.38201388889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45553.76251157407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45320</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45894.69829861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44936.86325231481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44592.37475694445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45894.37039351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45893.69837962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45820.6775</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45819</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45595</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45587</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>45892.69835648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45894.53178240741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>45649</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45589.49001157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45895.72991898148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>45895.48251157408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>45720</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>45720.57324074074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>45826.49555555556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>45826.48354166667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>45826</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45895.63664351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>45895.48373842592</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>45826.32945601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>45826.31524305556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>45826</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45826.57112268519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45826</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45826.49273148148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45826</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45898.53180555555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45898.55245370371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45825.34444444445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45897.63563657407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45448.94569444445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45754.62675925926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45901.55246527777</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45827.34677083333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45901.55268518518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>45448.94409722222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45832.34510416666</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45831.60331018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45831.61457175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45705.46724537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45705.71922453704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45832</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45903</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>45904.61506944444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45218.34753472222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45832</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45903</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45832</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>45831</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45903.65673611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45832</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45831.62219907407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45832</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45576.82554398148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45833.51791666666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45777.55259259259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45833.39784722222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45908.6425</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45590</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45833.34509259259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45713</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45615</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45905.59663194444</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45835.52561342593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45463.57846064815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45838.67253472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44952</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45790</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45835.64210648148</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45198.52241898148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45835.69831018519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44503</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>45838.70978009259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45559.61655092592</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45559.64984953704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45910.71481481481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>45839.37024305556</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44697</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45772.55646990741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>45839.51207175926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45005</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45839.60825231481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45839.68309027778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>45839.79112268519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45841.83383101852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>45099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45622.59480324074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45909.32541666667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44817.94894675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>45481</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45842</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44845.95304398148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45841.83299768518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>45911.60609953704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45911.61565972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>45911.57329861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45625.42743055556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45846.34438657408</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45479.9489699074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44971.93078703704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>45912.34260416667</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45666</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>45848.38278935185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45846.34537037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>45911.51107638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45848.36859953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>45848.3715625</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>45014</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>45916.34494212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45849.42777777778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45849.46943287037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         <v>45915.62952546297</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45915.63162037037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45915.67774305555</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45916.54280092593</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45849.40900462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45849.5046875</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45915.43275462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>45849.51297453704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>45112.41425925926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45916.54385416667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45849.34042824074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45854.33944444444</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45916.58086805556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>45565</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>45916.50414351852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>45915.45715277778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45856</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>45856.52092592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45856.49295138889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45916.65673611111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45114.4889699074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>45915.39046296296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45666</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45917.47184027778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45917.56386574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45918.65660879629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>45922.57350694444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>45863.44965277778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>45665.77418981482</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>45863.44001157407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45867</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45636</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44344</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45867</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45868.56623842593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>45919.62422453704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45922.42104166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>45922</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>45867.34443287037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45923.47471064814</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45923.4768287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45867</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45867.43743055555</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45868.69234953704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45867.505</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44322.93407407407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45868</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45646</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45867.39787037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45867.70578703703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45868.61376157407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45923.47857638889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45868</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45867.68413194444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>45867.63604166666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45926.34449074074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45926.61768518519</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45870.57207175926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45869.47054398148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45925.34475694445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45870.36071759259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45870.69335648148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>45926.65686342592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>45870.41331018518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45930.56827546296</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45930.63641203703</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>45874.6078587963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45510.97013888889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45929.58471064815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>45029.94212962963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45931.61092592592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>45037.94150462963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44722</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>45874.61203703703</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45140</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>45874.36677083333</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>45103</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>45174.93927083333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>45775.44128472222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>45877.31953703704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45880.74818287037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45882.65986111111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45748</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45484.59297453704</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45932.34454861111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45677</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45932.34476851852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45224.57511574074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45882.64618055556</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45882.64888888889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45881.4718287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45882.65576388889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45881.46734953704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31358,7 +31358,7 @@
         <v>45880.75725694445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>45880.7615162037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45884.5409375</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45774</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>44376.93453703704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45093.31925925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45883.71945601852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45937.45689814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>45937.37208333334</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>45938.43741898148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>45938.37679398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45938.43431712963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45758.5525462963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45770.55261574074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45937.62199074074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45799</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45698.85268518519</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45937.53739583334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44988.92247685185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44988.92252314815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45937.31471064815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45566</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>45940.34538194445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45939.35900462963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45939.32709490741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45939.33030092593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45939.37686342592</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45939.59351851852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>45944.3453125</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45944.3794212963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45944.41266203704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>45944.56780092593</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>45523.53366898148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45884.54922453704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45944.57844907408</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45883.61994212963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>45883.67800925926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33602,7 +33602,7 @@
         <v>45883.67813657408</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>45481.47248842593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45943.79672453704</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45077.45833333334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45714</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45761</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45944.45122685185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45944.45759259259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45944.55519675926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45883.67765046296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45540.34417824074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45944.59637731482</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45524.36006944445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45524</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>45943.71912037037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45944.41163194444</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>45944.55862268519</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>45534.63957175926</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45944.39729166667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45944.45733796297</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>45946.59537037037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>45068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35003,7 +35003,7 @@
         <v>44356.93482638889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>45944.75725694445</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35127,7 +35127,7 @@
         <v>45793.55854166667</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35184,7 +35184,7 @@
         <v>44977.93446759259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35241,7 +35241,7 @@
         <v>45950.65675925926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>45950.36554398148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>45769.65708333333</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>45947.63258101852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45947.48685185185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35551,7 +35551,7 @@
         <v>45947.44662037037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45771</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>45947.4753125</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>45950.38591435185</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>45950.49023148148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45952.63707175926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45951.4962037037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>45149</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>45559.47989583333</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44943.50074074074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>45309</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>45341.92533564815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>45756.57346064815</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36337,7 +36337,7 @@
         <v>45953.3316550926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>45953.36392361111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>45953.38861111111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36513,7 +36513,7 @@
         <v>45953.67081018518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36570,7 +36570,7 @@
         <v>45379.93677083333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36632,7 +36632,7 @@
         <v>45953.32070601852</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36689,7 +36689,7 @@
         <v>45954.71922453704</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36751,7 +36751,7 @@
         <v>45761</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36808,7 +36808,7 @@
         <v>45561</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>45955.49012731481</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>45679</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>45958.56741898148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45955.48998842593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45955.61505787037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37175,7 +37175,7 @@
         <v>45104</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37237,7 +37237,7 @@
         <v>45538</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37299,7 +37299,7 @@
         <v>45182</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45113</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45958.63582175926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37480,7 +37480,7 @@
         <v>45121</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45282.61475694444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45960.69875</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44505</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45272.95590277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45756.57349537037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45104.92340277778</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45104.9234375</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45966.70601851852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45966.71070601852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>45966.72503472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45099.62826388889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>45966.64833333333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>45965.32998842592</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>45966.67761574074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44894</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45967.67780092593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38519,7 +38519,7 @@
         <v>45968.49219907408</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>45488.4725925926</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>45107.44431712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>45600.61493055556</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>45967.51125</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>45968.47324074074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>45545</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39005,7 +39005,7 @@
         <v>45971.65574074074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39067,7 +39067,7 @@
         <v>45440.92835648148</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39124,7 +39124,7 @@
         <v>45971.34835648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>45972.69997685185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>45481.60922453704</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>45560.55664351852</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>45560.35121527778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>45974.5987037037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39491,7 +39491,7 @@
         <v>45121.45128472222</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45973.59322916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45562.62887731481</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>44971</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45975.48168981481</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45978.68910879629</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45562.5971412037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45975.49438657407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45756.30644675926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45975.5490625</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45975.47174768519</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>45978.36053240741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>45980.345625</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45593.34453703704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45593</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45754</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45174</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45979.4640625</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45980.40270833333</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45712.51121527778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>45204</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>45041</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>45981.70042824074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>45981.45693287037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         <v>45113.94976851852</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45985.59456018519</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41048,7 +41048,7 @@
         <v>45016</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45985.61600694444</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45622.63604166666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45443</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45481.41788194444</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45484</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
         <v>45484</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45698.63582175926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45985.63663194444</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45985.63626157407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>45775.45503472222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>45120.43883101852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>45600.45456018519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41839,7 +41839,7 @@
         <v>45986.598125</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41901,7 +41901,7 @@
         <v>45986.46958333333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>45560.33498842592</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45985.61247685185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>45330.93196759259</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>45329</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>45712.51097222222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45476</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>45036</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45035</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>44551</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45426</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45167</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45988.84578703704</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45665.4312037037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42739,7 +42739,7 @@
         <v>45992.81230324074</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42796,7 +42796,7 @@
         <v>45190.47796296296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45993</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42915,7 +42915,7 @@
         <v>45635</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>45645</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43039,7 +43039,7 @@
         <v>45099</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43096,7 +43096,7 @@
         <v>45993.36509259259</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>45506</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>45995.56527777778</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43267,7 +43267,7 @@
         <v>45485.38484953704</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>45996.65587962963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>45622.58969907407</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43443,7 +43443,7 @@
         <v>45316</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>45562</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45575.36512731481</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>45597.49931712963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>46042.67096064815</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>45517</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45910</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         <v>46001.59224537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45645</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45643.65672453704</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45645</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>46001.68094907407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>46001.57803240741</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45177.50853009259</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44291,7 +44291,7 @@
         <v>45106.94461805555</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44353,7 +44353,7 @@
         <v>46001.59894675926</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44377</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45770.61505787037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>46001.68630787037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45214.87300925926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>45214.93665509259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45098</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45677</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45619</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44906,7 +44906,7 @@
         <v>45240.94754629629</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>45149</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>46006.52695601852</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>45147</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44698</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45211,7 +45211,7 @@
         <v>46006.67302083333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>45775</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>46045.44380787037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45392,7 +45392,7 @@
         <v>45774.7928587963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>45774.80667824074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>45561</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45563,7 +45563,7 @@
         <v>46049.42824074074</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45625,7 +45625,7 @@
         <v>46049.42774305555</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>46007.32546296297</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>45103</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45103</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>45189</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45239.96893518518</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>45160</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>46048</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>46051.36545138889</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45236.4175</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45236.45083333334</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>45187.50721064815</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>45174.93942129629</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44774</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>46051.3494212963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>46051.36532407408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>46056.42962962963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44761</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>46055.59488425926</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>44687.30193287037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46825,7 +46825,7 @@
         <v>46055.36503472222</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46887,7 +46887,7 @@
         <v>45637</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46944,7 +46944,7 @@
         <v>45198</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>46056.4393287037</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>44671.94822916666</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>46057.49060185185</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>46057.46924768519</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47244,7 +47244,7 @@
         <v>46057.490625</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>46057.51086805556</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>46057.67790509259</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47430,7 +47430,7 @@
         <v>44826</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>45761</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>46057.51104166666</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>46057.49017361111</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45265.95881944444</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47735,7 +47735,7 @@
         <v>45743</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47797,7 +47797,7 @@
         <v>45719</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47854,7 +47854,7 @@
         <v>45313.76722222222</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47916,7 +47916,7 @@
         <v>45266</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47978,7 +47978,7 @@
         <v>45266</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45484.6541087963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45364</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45855</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45282</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>44781</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>44922.94351851852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45763</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45037</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>45463</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>45604</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45590</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45590</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45463.58333333334</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>46070.40673611111</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48945,7 +48945,7 @@
         <v>46028.75300925926</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>46072.34447916667</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45618.43826388889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45246</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45282.94709490741</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>46076.65726851852</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49312,7 +49312,7 @@
         <v>45944</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49374,7 +49374,7 @@
         <v>45215.87696759259</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49436,7 +49436,7 @@
         <v>44985.94431712963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45677</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>44879</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>46073.47167824074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45485.39127314815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45645</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>46073.46966435185</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>46076.61517361111</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45334.9250925926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45316</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45316</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45574.51344907407</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50140,7 +50140,7 @@
         <v>44328</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>45601</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45526.63690972222</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>45481</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
         <v>46073.47201388889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         <v>45450</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50507,7 +50507,7 @@
         <v>46078.40700231482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50569,7 +50569,7 @@
         <v>46078.40722222222</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50631,7 +50631,7 @@
         <v>46078.42765046296</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50693,7 +50693,7 @@
         <v>45329</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50755,7 +50755,7 @@
         <v>46078</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50812,7 +50812,7 @@
         <v>46078.66052083333</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50869,7 +50869,7 @@
         <v>46036.37449074074</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50931,7 +50931,7 @@
         <v>46036.58723379629</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>46035.44826388889</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>46078</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51107,7 +51107,7 @@
         <v>46076.5108912037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>46078.6249537037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>46078.4074537037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>46078.66976851852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51345,7 +51345,7 @@
         <v>44376.93355324074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>45546.34490740741</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51469,7 +51469,7 @@
         <v>44398.93342592593</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44925.93875</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51593,7 +51593,7 @@
         <v>46036.37225694444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>44952</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51712,7 +51712,7 @@
         <v>45601</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51774,7 +51774,7 @@
         <v>46036.603125</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51836,7 +51836,7 @@
         <v>45387.95409722222</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51898,7 +51898,7 @@
         <v>45387.95421296296</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51960,7 +51960,7 @@
         <v>45735</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52017,7 +52017,7 @@
         <v>46036.65756944445</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52079,7 +52079,7 @@
         <v>45589</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52141,7 +52141,7 @@
         <v>45589</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52203,7 +52203,7 @@
         <v>44935.97217592593</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52265,7 +52265,7 @@
         <v>45604</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52327,7 +52327,7 @@
         <v>45566.85192129629</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45576.40248842593</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52451,7 +52451,7 @@
         <v>45561</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52508,7 +52508,7 @@
         <v>46078.6675462963</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52565,7 +52565,7 @@
         <v>45266.95105324074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>46078.67704861111</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>44993.01296296297</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52746,7 +52746,7 @@
         <v>46038.34892361111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44449.42745370371</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52870,7 +52870,7 @@
         <v>45072.42990740741</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52932,7 +52932,7 @@
         <v>45502</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52994,7 +52994,7 @@
         <v>45078.94167824074</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53056,7 +53056,7 @@
         <v>46078.63130787037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53113,7 +53113,7 @@
         <v>45189</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53170,7 +53170,7 @@
         <v>45774.81648148148</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         <v>45573</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53289,7 +53289,7 @@
         <v>45105.86278935185</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53351,7 +53351,7 @@
         <v>45061</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53413,7 +53413,7 @@
         <v>45770.36570601852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53475,7 +53475,7 @@
         <v>45167</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53532,7 +53532,7 @@
         <v>45635</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53589,7 +53589,7 @@
         <v>45113.94958333333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53651,7 +53651,7 @@
         <v>45356</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53713,7 +53713,7 @@
         <v>44516.34648148148</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53775,7 +53775,7 @@
         <v>45639.40667824074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53837,7 +53837,7 @@
         <v>45266.6125</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53899,7 +53899,7 @@
         <v>45505.95200231481</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53961,7 +53961,7 @@
         <v>45329</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54023,7 +54023,7 @@
         <v>45329</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54085,7 +54085,7 @@
         <v>44592</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54142,7 +54142,7 @@
         <v>44592</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54199,7 +54199,7 @@
         <v>44952</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54256,7 +54256,7 @@
         <v>45148</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54313,7 +54313,7 @@
         <v>45488.46452546296</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54370,7 +54370,7 @@
         <v>45610</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54432,7 +54432,7 @@
         <v>45505</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54494,7 +54494,7 @@
         <v>44859</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45774.32366898148</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>45471</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45481.40775462963</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54727,7 +54727,7 @@
         <v>45684.65501157408</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54784,7 +54784,7 @@
         <v>45077.54615740741</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54846,7 +54846,7 @@
         <v>45670</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54903,7 +54903,7 @@
         <v>45762.45550925926</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54960,7 +54960,7 @@
         <v>44915.94388888889</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55022,7 +55022,7 @@
         <v>45329</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45265.95873842593</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55146,7 +55146,7 @@
         <v>45629</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55203,7 +55203,7 @@
         <v>45590</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55260,7 +55260,7 @@
         <v>45246.96921296296</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55322,7 +55322,7 @@
         <v>45762.43146990741</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55379,7 +55379,7 @@
         <v>45092.35770833334</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55441,7 +55441,7 @@
         <v>45071.92619212963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55498,7 +55498,7 @@
         <v>45611</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55560,7 +55560,7 @@
         <v>45492</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55622,7 +55622,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55679,7 +55679,7 @@
         <v>45562.52640046296</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55741,7 +55741,7 @@
         <v>45534.30681712963</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55803,7 +55803,7 @@
         <v>45566.40032407407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55865,7 +55865,7 @@
         <v>45560.34202546296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55927,7 +55927,7 @@
         <v>45705</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         <v>45148.3397337963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56051,7 +56051,7 @@
         <v>45330.93173611111</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56108,7 +56108,7 @@
         <v>45505.95209490741</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56170,7 +56170,7 @@
         <v>45282</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56227,7 +56227,7 @@
         <v>45510</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56289,7 +56289,7 @@
         <v>44377.76381944444</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56346,7 +56346,7 @@
         <v>44739</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56403,7 +56403,7 @@
         <v>45576</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56465,7 +56465,7 @@
         <v>45463.58702546296</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56527,7 +56527,7 @@
         <v>45113</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56584,7 +56584,7 @@
         <v>44938.93849537037</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56646,7 +56646,7 @@
         <v>45576.83114583333</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56708,7 +56708,7 @@
         <v>45567</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56765,7 +56765,7 @@
         <v>44533.94483796296</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         <v>45463.58045138889</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45313</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56951,7 +56951,7 @@
         <v>45590.40659722222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57013,7 +57013,7 @@
         <v>45154.58393518518</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57075,7 +57075,7 @@
         <v>45737</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57137,7 +57137,7 @@
         <v>45478</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57199,7 +57199,7 @@
         <v>45777.63572916666</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57261,7 +57261,7 @@
         <v>45599.74957175926</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57318,7 +57318,7 @@
         <v>45779.4949537037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57380,7 +57380,7 @@
         <v>44988.93965277778</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57442,7 +57442,7 @@
         <v>45786.64646990741</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57504,7 +57504,7 @@
         <v>45785.55258101852</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -57561,7 +57561,7 @@
         <v>45791.42770833334</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -57623,7 +57623,7 @@
         <v>45793.59431712963</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -57685,7 +57685,7 @@
         <v>45436</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45793.42809027778</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45750.5587962963</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45797.34456018519</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57928,7 +57928,7 @@
         <v>45798</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57985,7 +57985,7 @@
         <v>45800.63631944444</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58047,7 +58047,7 @@
         <v>45800.67762731481</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58109,7 +58109,7 @@
         <v>45800.66145833334</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58171,7 +58171,7 @@
         <v>45799.38585648148</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45800.64912037037</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58295,7 +58295,7 @@
         <v>45799</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58357,7 +58357,7 @@
         <v>44595.92319444445</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>

--- a/Översikt ÅSELE.xlsx
+++ b/Översikt ÅSELE.xlsx
@@ -575,7 +575,7 @@
         <v>45826</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45481.50050925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45481.44920138889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44354.5665162037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45517.61098379629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>45201</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45811.34444444445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45826</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44498.63015046297</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45810</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45617</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45939.36972222223</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45177</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>46038.31931712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44960</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44861</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45810</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45826</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>45915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45805.41388888889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45613</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45106</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>46038.34517361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45443</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45463</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>45898.365</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45016.07569444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45952.34454861111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45960.574375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>44987</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44986</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>45357</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>44823</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>44501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45505</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45811</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>45898</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>45903.69844907407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>45093.60384259259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45925.34439814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         <v>45880.3647337963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45936.46305555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45937.63756944444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45236.40642361111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45761</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45910</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45208</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>45280</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>45568</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45562</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>46036.57505787037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>44390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>44727.65446759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44426.69363425926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44858.49686342593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>44490.65641203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44519.49189814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44615.35633101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44776</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44420.34442129629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44808.95638888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44803.43947916666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44756.49922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44851.95386574074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>44847.94993055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>44859</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44687.29710648148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44797.94505787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44767.94136574074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>44795.94395833334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44526.36642361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44474</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44817.94888888889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44381</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44477.49746527777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44381.91863425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44817.94775462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44386</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>44459</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44341</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44490.60037037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44476</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44694</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44694.53769675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44585</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44678</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44755</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44795</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44519.41366898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>44858</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44747</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44861.95710648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>44713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44607.94155092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44872.95690972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44531</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44686.94269675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44433.64141203704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44503</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44385.93583333334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44350</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44455.60459490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44386.56488425926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44496.39971064815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44781</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44498.61892361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44496</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44472</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44498.62789351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44711</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44704.59678240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44704.6177662037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>45329</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44356.93478009259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>45329</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45772.36670138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45206</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>45068</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>45208.62702546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45196.6055324074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>45196</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>45378.93795138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44866</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>45757</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>45205</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45369</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45336.44858796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45734.53167824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45428</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45758.3859375</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45463</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45463.58829861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45619.7193287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45223</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45113.94913194444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>45534.3956712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45392</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44953.97421296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45551.61681712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44426.68600694444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45443</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45457.96425925926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45272</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45463</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45526.36461805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>45484.58983796297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>45443</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44379.50560185185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>45154.54208333333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44908</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45135.45417824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44936</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45174.93857638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45620.91673611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44993.01305555556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>45533.5966087963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44377</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45491.4734375</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>44970</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45176</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45481.46547453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>45443</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45476.32990740741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44980.93821759259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44935.97194444444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>45510</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>45481.37263888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45576.43226851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45545</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45316</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44888</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45488.94793981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45590</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44915.94381944444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44985</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45566.94626157408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45883.34452546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45881.40665509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>45881.44828703703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>45198</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>44984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>44888</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>44908</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>45805.36946759259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45805.44869212963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45805.36008101852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>45805.32921296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45805.3371412037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45805</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45881.47364583334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45883.34482638889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45677</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45805.37388888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45888.69388888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45810</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45810.57378472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45476.31515046296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45476.31981481481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45807</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45827</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44952</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45541</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45551.34447916667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45764.48995370371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45888.53960648148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45888.54513888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45812.34475694445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45114</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45890.34418981482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45889.3547800926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45813.67741898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45814</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45814</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45889.36145833333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45814</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45814.39700231481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45574.59653935185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45813</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45890</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>44524</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>45194.66240740741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>45565.33832175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45889.67877314815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45890</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45890</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45558</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45706</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45818</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45562</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45147.32908564815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45894.53172453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>45894.38201388889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>45553.76251157407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45320</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45894.69829861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>44936.86325231481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>44592.37475694445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45894.37039351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45893.69837962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45820.6775</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45819</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45595</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45587</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>45892.69835648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45894.53178240741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>45649</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45589.49001157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45895.72991898148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>45895.48251157408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>45720</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>45720.57324074074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>45826.49555555556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>45826.48354166667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>45826</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45895.63664351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>45895.48373842592</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>45826.32945601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>45826.31524305556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>45826</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45826.57112268519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45826</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45826.49273148148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45826</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45898.53180555555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45898.55245370371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45825.34444444445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45897.63563657407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         <v>45448.94569444445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45754.62675925926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45901.55246527777</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45713</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45827.34677083333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45901.55268518518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>45448.94409722222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45832.34510416666</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>45831.60331018519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45831.61457175926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45705.46724537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>45705.71922453704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45832</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>45903</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>45904.61506944444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45218.34753472222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45832</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45903</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>45832</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>45831</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45903.65673611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45832</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45831.62219907407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45832</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45576.82554398148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45833.51791666666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>45777.55259259259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45833.39784722222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45908.6425</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45590</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45833.34509259259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45713</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45615</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45905.59663194444</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45835.52561342593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45463.57846064815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45838.67253472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44952</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45790</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45835.64210648148</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45198.52241898148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45835.69831018519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44503</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>45838.70978009259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45559.61655092592</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45559.64984953704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45910.71481481481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>45910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>45839.37024305556</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44697</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45772.55646990741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>45839.51207175926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45005</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45839.60825231481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45839.68309027778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>45839.79112268519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45841.83383101852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>45099</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45622.59480324074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45909.32541666667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44817.94894675926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>45481</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>45842</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44845.95304398148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45841.83299768518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>45911.60609953704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45911.61565972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>45911.57329861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45625.42743055556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45846.34438657408</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45479.9489699074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44971.93078703704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>45912.34260416667</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45666</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45671</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>45848.38278935185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>45846.34537037037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>45911.51107638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45848.36859953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>45848.3715625</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>45014</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>45916.34494212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45849.42777777778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45849.46943287037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         <v>45915.62952546297</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45915.63162037037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45915.67774305555</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45916.54280092593</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45849.40900462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45849.5046875</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45915.43275462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>45849.51297453704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>45112.41425925926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45916.54385416667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45849.34042824074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45854.33944444444</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45916.58086805556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>45565</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>45916.50414351852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>45915.45715277778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45856</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>45856.52092592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45856.49295138889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45916.65673611111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45114.4889699074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>45915.39046296296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45666</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45917.47184027778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45917.56386574074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45918.65660879629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>45922.57350694444</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>45863.44965277778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>45665.77418981482</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>45863.44001157407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45867</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45636</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44344</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45867</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45868.56623842593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>45919.62422453704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45922.42104166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>45922</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>45867.34443287037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45923.47471064814</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45923.4768287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45867</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45867.43743055555</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45868.69234953704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45867.505</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44322.93407407407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45868</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45646</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45867.39787037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45867.70578703703</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>45868.61376157407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45923.47857638889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45868</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45867.68413194444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>45867.63604166666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45926.34449074074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45926.61768518519</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45870.57207175926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45869.47054398148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45925.34475694445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45870.36071759259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45870.69335648148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>45926.65686342592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>45870.41331018518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45930.56827546296</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45930.63641203703</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>45874.6078587963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45510.97013888889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45929.58471064815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>45029.94212962963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45931.61092592592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>45037.94150462963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44722</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>45874.61203703703</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>45140</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>45874.36677083333</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>45103</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>45174.93927083333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>45775.44128472222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>45877.31953703704</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>45880.74818287037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>45882.65986111111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45748</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45484.59297453704</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30820,7 +30820,7 @@
         <v>45932.34454861111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45677</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45932.34476851852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45224.57511574074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45882.64618055556</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45882.64888888889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45881.4718287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45882.65576388889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45881.46734953704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31358,7 +31358,7 @@
         <v>45880.75725694445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>45880.7615162037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45884.5409375</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45774</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>44376.93453703704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45093.31925925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45883.71945601852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31772,7 +31772,7 @@
         <v>45937.45689814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>45937.37208333334</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>45938.43741898148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>45938.37679398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45938.43431712963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45758.5525462963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45770.55261574074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45937.62199074074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45799</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45698.85268518519</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45937.53739583334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44988.92247685185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44988.92252314815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>45937.31471064815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45566</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>45940.34538194445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45939.35900462963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45939.32709490741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45939.33030092593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45939.37686342592</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45939.59351851852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>45944.3453125</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45944.3794212963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45944.41266203704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>45944.56780092593</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>45523.53366898148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45884.54922453704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45944.57844907408</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45883.61994212963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>45883.67800925926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33602,7 +33602,7 @@
         <v>45883.67813657408</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>45481.47248842593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45943.79672453704</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45077.45833333334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45714</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45761</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45944.45122685185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34083,7 +34083,7 @@
         <v>45944.45759259259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45944.55519675926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34207,7 +34207,7 @@
         <v>45883.67765046296</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45540.34417824074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45944.59637731482</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45524.36006944445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45524</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>45943.71912037037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
         <v>45944.41163194444</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>45944.55862268519</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>45534.63957175926</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45944.39729166667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45944.45733796297</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>45946.59537037037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         <v>45068</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35003,7 +35003,7 @@
         <v>44356.93482638889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35065,7 +35065,7 @@
         <v>45944.75725694445</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35127,7 +35127,7 @@
         <v>45793.55854166667</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35184,7 +35184,7 @@
         <v>44977.93446759259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35241,7 +35241,7 @@
         <v>45950.65675925926</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>45950.36554398148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>45769.65708333333</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>45947.63258101852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45947.48685185185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35551,7 +35551,7 @@
         <v>45947.44662037037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45771</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>45947.4753125</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35737,7 +35737,7 @@
         <v>45950.38591435185</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>45950.49023148148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45952.63707175926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35918,7 +35918,7 @@
         <v>45951.4962037037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35975,7 +35975,7 @@
         <v>45149</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>45559.47989583333</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44943.50074074074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>45309</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>45341.92533564815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>45756.57346064815</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36337,7 +36337,7 @@
         <v>45953.3316550926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>45953.36392361111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>45953.38861111111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36513,7 +36513,7 @@
         <v>45953.67081018518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36570,7 +36570,7 @@
         <v>45379.93677083333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36632,7 +36632,7 @@
         <v>45953.32070601852</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36689,7 +36689,7 @@
         <v>45954.71922453704</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36751,7 +36751,7 @@
         <v>45761</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36808,7 +36808,7 @@
         <v>45561</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>45955.49012731481</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>45679</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>45958.56741898148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>45955.48998842593</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37113,7 +37113,7 @@
         <v>45955.61505787037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37175,7 +37175,7 @@
         <v>45104</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37237,7 +37237,7 @@
         <v>45538</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37299,7 +37299,7 @@
         <v>45182</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>45113</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>45958.63582175926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37480,7 +37480,7 @@
         <v>45121</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45282.61475694444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45960.69875</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44505</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45272.95590277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45756.57349537037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45104.92340277778</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45104.9234375</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45966.70601851852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45966.71070601852</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>45966.72503472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45099.62826388889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38209,7 +38209,7 @@
         <v>45966.64833333333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>45965.32998842592</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>45966.67761574074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>44894</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45967.67780092593</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38519,7 +38519,7 @@
         <v>45968.49219907408</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38581,7 +38581,7 @@
         <v>45068</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38638,7 +38638,7 @@
         <v>45488.4725925926</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>45107.44431712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>45600.61493055556</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>45967.51125</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>45968.47324074074</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>45545</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39005,7 +39005,7 @@
         <v>45971.65574074074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39067,7 +39067,7 @@
         <v>45440.92835648148</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39124,7 +39124,7 @@
         <v>45971.34835648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>45972.69997685185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>45481.60922453704</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>45560.55664351852</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39372,7 +39372,7 @@
         <v>45560.35121527778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>45974.5987037037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39491,7 +39491,7 @@
         <v>45121.45128472222</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45973.59322916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45562.62887731481</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>44971</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45975.48168981481</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45978.68910879629</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45562.5971412037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45975.49438657407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45756.30644675926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45975.5490625</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45975.47174768519</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>45978.36053240741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>45980.345625</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45593.34453703704</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45593</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45754</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45174</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45979.4640625</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45980.40270833333</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45712.51121527778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>45204</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40748,7 +40748,7 @@
         <v>45041</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40805,7 +40805,7 @@
         <v>45981.70042824074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40867,7 +40867,7 @@
         <v>45981.45693287037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         <v>45113.94976851852</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45985.59456018519</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41048,7 +41048,7 @@
         <v>45016</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>45985.61600694444</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45622.63604166666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45443</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45481.41788194444</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45484</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
         <v>45484</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45698.63582175926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>45985.63663194444</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45985.63626157407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>45775.45503472222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>45120.43883101852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>45600.45456018519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41839,7 +41839,7 @@
         <v>45986.598125</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41901,7 +41901,7 @@
         <v>45986.46958333333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41958,7 +41958,7 @@
         <v>45560.33498842592</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42020,7 +42020,7 @@
         <v>45985.61247685185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>45330.93196759259</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>45329</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42201,7 +42201,7 @@
         <v>45712.51097222222</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>45476</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42325,7 +42325,7 @@
         <v>45036</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45035</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>44551</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45426</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45167</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42620,7 +42620,7 @@
         <v>45988.84578703704</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45665.4312037037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42739,7 +42739,7 @@
         <v>45992.81230324074</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42796,7 +42796,7 @@
         <v>45190.47796296296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45993</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42915,7 +42915,7 @@
         <v>45635</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42977,7 +42977,7 @@
         <v>45645</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43039,7 +43039,7 @@
         <v>45099</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43096,7 +43096,7 @@
         <v>45993.36509259259</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43153,7 +43153,7 @@
         <v>45506</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43210,7 +43210,7 @@
         <v>45995.56527777778</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43267,7 +43267,7 @@
         <v>45485.38484953704</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>45996.65587962963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43386,7 +43386,7 @@
         <v>45622.58969907407</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -43443,7 +43443,7 @@
         <v>45316</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43500,7 +43500,7 @@
         <v>45562</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43562,7 +43562,7 @@
         <v>45575.36512731481</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>45597.49931712963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43686,7 +43686,7 @@
         <v>46042.67096064815</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>45517</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45910</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         <v>46001.59224537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45645</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45643.65672453704</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45645</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>46001.68094907407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>46001.57803240741</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44229,7 +44229,7 @@
         <v>45177.50853009259</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44291,7 +44291,7 @@
         <v>45106.94461805555</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44353,7 +44353,7 @@
         <v>46001.59894675926</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>44377</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45770.61505787037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>46001.68630787037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45214.87300925926</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>45214.93665509259</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45098</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45677</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45619</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44906,7 +44906,7 @@
         <v>45240.94754629629</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>45149</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>46006.52695601852</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>45147</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44698</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45211,7 +45211,7 @@
         <v>46006.67302083333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>45775</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>46045.44380787037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45392,7 +45392,7 @@
         <v>45774.7928587963</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>45774.80667824074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>45561</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -45563,7 +45563,7 @@
         <v>46049.42824074074</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45625,7 +45625,7 @@
         <v>46049.42774305555</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>46007.32546296297</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>45103</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45103</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>45189</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45239.96893518518</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>45160</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>46048</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>46051.36545138889</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45236.4175</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46225,7 +46225,7 @@
         <v>45236.45083333334</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46287,7 +46287,7 @@
         <v>45187.50721064815</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46344,7 +46344,7 @@
         <v>45174.93942129629</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46406,7 +46406,7 @@
         <v>44774</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46463,7 +46463,7 @@
         <v>46051.3494212963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>46051.36532407408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>46056.42962962963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>44761</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         <v>46055.59488425926</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>44687.30193287037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46825,7 +46825,7 @@
         <v>46055.36503472222</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46887,7 +46887,7 @@
         <v>45637</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46944,7 +46944,7 @@
         <v>45198</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>46056.4393287037</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>44671.94822916666</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>46057.49060185185</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>46057.46924768519</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47244,7 +47244,7 @@
         <v>46057.490625</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>46057.51086805556</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>46057.67790509259</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47430,7 +47430,7 @@
         <v>44826</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>45761</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>46057.51104166666</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>46057.49017361111</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45265.95881944444</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47735,7 +47735,7 @@
         <v>45743</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47797,7 +47797,7 @@
         <v>45719</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47854,7 +47854,7 @@
         <v>45313.76722222222</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47916,7 +47916,7 @@
         <v>45266</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47978,7 +47978,7 @@
         <v>45266</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48040,7 +48040,7 @@
         <v>45357</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45484.6541087963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45364</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45855</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45282</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>44781</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>44922.94351851852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         <v>45763</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45037</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         <v>45463</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>45604</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>45590</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45590</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45463.58333333334</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48883,7 +48883,7 @@
         <v>46070.40673611111</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48945,7 +48945,7 @@
         <v>46028.75300925926</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49002,7 +49002,7 @@
         <v>46072.34447916667</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49064,7 +49064,7 @@
         <v>45618.43826388889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49126,7 +49126,7 @@
         <v>45246</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49188,7 +49188,7 @@
         <v>45282.94709490741</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>46076.65726851852</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49312,7 +49312,7 @@
         <v>45944</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49374,7 +49374,7 @@
         <v>45215.87696759259</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49436,7 +49436,7 @@
         <v>44985.94431712963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45677</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         <v>44879</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49612,7 +49612,7 @@
         <v>46073.47167824074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -49669,7 +49669,7 @@
         <v>45485.39127314815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49726,7 +49726,7 @@
         <v>45645</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49783,7 +49783,7 @@
         <v>46073.46966435185</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>46076.61517361111</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45334.9250925926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45316</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45316</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45574.51344907407</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50140,7 +50140,7 @@
         <v>44328</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>45601</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45526.63690972222</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50326,7 +50326,7 @@
         <v>45481</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
         <v>46073.47201388889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         <v>45450</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50507,7 +50507,7 @@
         <v>46078.40700231482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50569,7 +50569,7 @@
         <v>46078.40722222222</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50631,7 +50631,7 @@
         <v>46078.42765046296</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50693,7 +50693,7 @@
         <v>45329</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50755,7 +50755,7 @@
         <v>46078</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50812,7 +50812,7 @@
         <v>46078.66052083333</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50869,7 +50869,7 @@
         <v>46036.37449074074</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50931,7 +50931,7 @@
         <v>46036.58723379629</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>46035.44826388889</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>46078</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51107,7 +51107,7 @@
         <v>46076.5108912037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>46078.6249537037</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>46078.4074537037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51288,7 +51288,7 @@
         <v>46078.66976851852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51345,7 +51345,7 @@
         <v>44376.93355324074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51407,7 +51407,7 @@
         <v>45546.34490740741</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51469,7 +51469,7 @@
         <v>44398.93342592593</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51531,7 +51531,7 @@
         <v>44925.93875</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51593,7 +51593,7 @@
         <v>46036.37225694444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>44952</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51712,7 +51712,7 @@
         <v>45601</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51774,7 +51774,7 @@
         <v>46036.603125</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51836,7 +51836,7 @@
         <v>45387.95409722222</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51898,7 +51898,7 @@
         <v>45387.95421296296</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51960,7 +51960,7 @@
         <v>45735</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52017,7 +52017,7 @@
         <v>46036.65756944445</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52079,7 +52079,7 @@
         <v>45589</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52141,7 +52141,7 @@
         <v>45589</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52203,7 +52203,7 @@
         <v>44935.97217592593</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52265,7 +52265,7 @@
         <v>45604</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52327,7 +52327,7 @@
         <v>45566.85192129629</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         <v>45576.40248842593</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52451,7 +52451,7 @@
         <v>45561</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52508,7 +52508,7 @@
         <v>46078.6675462963</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52565,7 +52565,7 @@
         <v>45266.95105324074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>46078.67704861111</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>44993.01296296297</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52746,7 +52746,7 @@
         <v>46038.34892361111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52808,7 +52808,7 @@
         <v>44449.42745370371</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52870,7 +52870,7 @@
         <v>45072.42990740741</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52932,7 +52932,7 @@
         <v>45502</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52994,7 +52994,7 @@
         <v>45078.94167824074</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53056,7 +53056,7 @@
         <v>46078.63130787037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53113,7 +53113,7 @@
         <v>45189</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53170,7 +53170,7 @@
         <v>45774.81648148148</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         <v>45573</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53289,7 +53289,7 @@
         <v>45105.86278935185</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53351,7 +53351,7 @@
         <v>45061</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53413,7 +53413,7 @@
         <v>45770.36570601852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53475,7 +53475,7 @@
         <v>45167</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53532,7 +53532,7 @@
         <v>45635</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53589,7 +53589,7 @@
         <v>45113.94958333333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53651,7 +53651,7 @@
         <v>45356</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53713,7 +53713,7 @@
         <v>44516.34648148148</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53775,7 +53775,7 @@
         <v>45639.40667824074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53837,7 +53837,7 @@
         <v>45266.6125</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53899,7 +53899,7 @@
         <v>45505.95200231481</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53961,7 +53961,7 @@
         <v>45329</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54023,7 +54023,7 @@
         <v>45329</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54085,7 +54085,7 @@
         <v>44592</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54142,7 +54142,7 @@
         <v>44592</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54199,7 +54199,7 @@
         <v>44952</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54256,7 +54256,7 @@
         <v>45148</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54313,7 +54313,7 @@
         <v>45488.46452546296</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54370,7 +54370,7 @@
         <v>45610</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54432,7 +54432,7 @@
         <v>45505</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54494,7 +54494,7 @@
         <v>44859</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45774.32366898148</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>45471</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45481.40775462963</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54727,7 +54727,7 @@
         <v>45684.65501157408</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54784,7 +54784,7 @@
         <v>45077.54615740741</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54846,7 +54846,7 @@
         <v>45670</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54903,7 +54903,7 @@
         <v>45762.45550925926</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54960,7 +54960,7 @@
         <v>44915.94388888889</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55022,7 +55022,7 @@
         <v>45329</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55084,7 +55084,7 @@
         <v>45265.95873842593</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55146,7 +55146,7 @@
         <v>45629</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55203,7 +55203,7 @@
         <v>45590</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55260,7 +55260,7 @@
         <v>45246.96921296296</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55322,7 +55322,7 @@
         <v>45762.43146990741</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55379,7 +55379,7 @@
         <v>45092.35770833334</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55441,7 +55441,7 @@
         <v>45071.92619212963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55498,7 +55498,7 @@
         <v>45611</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55560,7 +55560,7 @@
         <v>45492</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55622,7 +55622,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55679,7 +55679,7 @@
         <v>45562.52640046296</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55741,7 +55741,7 @@
         <v>45534.30681712963</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55803,7 +55803,7 @@
         <v>45566.40032407407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55865,7 +55865,7 @@
         <v>45560.34202546296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55927,7 +55927,7 @@
         <v>45705</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         <v>45148.3397337963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56051,7 +56051,7 @@
         <v>45330.93173611111</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56108,7 +56108,7 @@
         <v>45505.95209490741</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56170,7 +56170,7 @@
         <v>45282</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56227,7 +56227,7 @@
         <v>45510</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56289,7 +56289,7 @@
         <v>44377.76381944444</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56346,7 +56346,7 @@
         <v>44739</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56403,7 +56403,7 @@
         <v>45576</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56465,7 +56465,7 @@
         <v>45463.58702546296</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56527,7 +56527,7 @@
         <v>45113</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56584,7 +56584,7 @@
         <v>44938.93849537037</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56646,7 +56646,7 @@
         <v>45576.83114583333</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56708,7 +56708,7 @@
         <v>45567</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56765,7 +56765,7 @@
         <v>44533.94483796296</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         <v>45463.58045138889</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56889,7 +56889,7 @@
         <v>45313</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56951,7 +56951,7 @@
         <v>45590.40659722222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57013,7 +57013,7 @@
         <v>45154.58393518518</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57075,7 +57075,7 @@
         <v>45737</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57137,7 +57137,7 @@
         <v>45478</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57199,7 +57199,7 @@
         <v>45777.63572916666</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57261,7 +57261,7 @@
         <v>45599.74957175926</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57318,7 +57318,7 @@
         <v>45779.4949537037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57380,7 +57380,7 @@
         <v>44988.93965277778</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57442,7 +57442,7 @@
         <v>45786.64646990741</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57504,7 +57504,7 @@
         <v>45785.55258101852</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -57561,7 +57561,7 @@
         <v>45791.42770833334</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -57623,7 +57623,7 @@
         <v>45793.59431712963</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -57685,7 +57685,7 @@
         <v>45436</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>45793.42809027778</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57809,7 +57809,7 @@
         <v>45750.5587962963</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45797.34456018519</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57928,7 +57928,7 @@
         <v>45798</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57985,7 +57985,7 @@
         <v>45800.63631944444</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58047,7 +58047,7 @@
         <v>45800.67762731481</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58109,7 +58109,7 @@
         <v>45800.66145833334</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58171,7 +58171,7 @@
         <v>45799.38585648148</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>45800.64912037037</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58295,7 +58295,7 @@
         <v>45799</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58357,7 +58357,7 @@
         <v>44595.92319444445</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
